--- a/_downloads/3057f47025531a8bce65353184836efc/Ajuste modelo AR al precio de electricidad.xlsx
+++ b/_downloads/3057f47025531a8bce65353184836efc/Ajuste modelo AR al precio de electricidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Dropbox\UdeA\Muestreo y series de tiempo\Clases\4. Modelos Autorregresivos-AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491ED752-BC0E-43EC-B74F-29FAA549E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38FB077-2458-4F4C-95F3-3D6C81ECD010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12772" xr2:uid="{E6DAB8E1-1BB9-4668-9490-E25EF2BFE0B8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>Fecha</t>
   </si>
@@ -968,12 +968,48 @@
   <si>
     <t>n-1 para AR(1)</t>
   </si>
+  <si>
+    <t>2024-04</t>
+  </si>
+  <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,8 +1040,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,6 +1063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,6 +1109,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7875,874 +7924,874 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="291"/>
                 <c:pt idx="1">
-                  <c:v>3.7130399587674123</c:v>
+                  <c:v>3.6509399587674123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.785323096975457</c:v>
+                  <c:v>3.7244230969754573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6908033109711216</c:v>
+                  <c:v>3.6311033109711213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8840965504282696</c:v>
+                  <c:v>3.8255965504282692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.649925116636334</c:v>
+                  <c:v>3.5926251166363339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7483026018605905</c:v>
+                  <c:v>3.6922026018605902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8216509747549336</c:v>
+                  <c:v>3.7667509747549337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9616571797986913</c:v>
+                  <c:v>3.9079571797986916</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.22149102793467</c:v>
+                  <c:v>4.1689910279346698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.915617897950173</c:v>
+                  <c:v>3.8643178979501731</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8448635179280606</c:v>
+                  <c:v>3.7947635179280601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0212422577498055</c:v>
+                  <c:v>3.9723422577498053</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2939363710938174</c:v>
+                  <c:v>4.2462363710938176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4957190485892946</c:v>
+                  <c:v>4.4492190485892946</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3080843194288132</c:v>
+                  <c:v>4.2627843194288131</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2286190658801681</c:v>
+                  <c:v>4.1845190658801679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.00809199019535</c:v>
+                  <c:v>3.9651919901953501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.854584237558905</c:v>
+                  <c:v>3.8128842375589054</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7820472011844162</c:v>
+                  <c:v>3.741547201184416</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7677887836513477</c:v>
+                  <c:v>3.7284887836513474</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8968545311968885</c:v>
+                  <c:v>3.8587545311968885</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9465171331156412</c:v>
+                  <c:v>3.9096171331156415</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8050564354499494</c:v>
+                  <c:v>3.7693564354499496</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.6712008800847054</c:v>
+                  <c:v>3.6367008800847058</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.7606360582844838</c:v>
+                  <c:v>3.7273360582844837</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0587023619406146</c:v>
+                  <c:v>4.0266023619406148</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0257365863950278</c:v>
+                  <c:v>3.9948365863950279</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9951179249977748</c:v>
+                  <c:v>3.9654179249977748</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.7837186187589991</c:v>
+                  <c:v>3.7552186187589989</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.6645039686275531</c:v>
+                  <c:v>3.6372039686275528</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8273381667989907</c:v>
+                  <c:v>3.8012381667989912</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8908812807081903</c:v>
+                  <c:v>3.8659812807081906</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.9543681772028494</c:v>
+                  <c:v>3.9306681772028496</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.1339731189870514</c:v>
+                  <c:v>4.1114731189870515</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.0236276691689037</c:v>
+                  <c:v>4.0023276691689036</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.1771779012735024</c:v>
+                  <c:v>4.1570779012735031</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.239207798775297</c:v>
+                  <c:v>4.2203077987752975</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.276520758214442</c:v>
+                  <c:v>4.2588207582144424</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.3279347516755289</c:v>
+                  <c:v>4.3114347516755291</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.3670670573571186</c:v>
+                  <c:v>4.3517670573571188</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2485731567881642</c:v>
+                  <c:v>4.2344731567881642</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.1894600865782605</c:v>
+                  <c:v>4.1765600865782604</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.2508687565550245</c:v>
+                  <c:v>4.2391687565550242</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.186197118890294</c:v>
+                  <c:v>4.1756971188902936</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.1532772282497596</c:v>
+                  <c:v>4.1439772282497591</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.0544733217823818</c:v>
+                  <c:v>4.0463733217823821</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.1725422251067679</c:v>
+                  <c:v>4.165642225106768</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.0055406727237868</c:v>
+                  <c:v>3.9998406727237867</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.1147688526922819</c:v>
+                  <c:v>4.1102688526922817</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.2685856872046948</c:v>
+                  <c:v>4.2652856872046945</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.2847475395872276</c:v>
+                  <c:v>4.2826475395872272</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.2680739643987202</c:v>
+                  <c:v>4.2671739643987197</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.2730234423849867</c:v>
+                  <c:v>4.2733234423849868</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.9887280785679708</c:v>
+                  <c:v>3.9902280785679705</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0097206547237327</c:v>
+                  <c:v>4.0124206547237327</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.0300302286138514</c:v>
+                  <c:v>4.0339302286138512</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.1114407382479286</c:v>
+                  <c:v>4.1165407382479282</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.2565016323843414</c:v>
+                  <c:v>4.262801632384341</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.2306762248825098</c:v>
+                  <c:v>4.2381762248825092</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.215075885208476</c:v>
+                  <c:v>4.2237758852084752</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.4051788735360935</c:v>
+                  <c:v>4.4150788735360935</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.3179064964384075</c:v>
+                  <c:v>4.3290064964384074</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.2523928820413346</c:v>
+                  <c:v>4.2646928820413343</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.2470522706048977</c:v>
+                  <c:v>4.2605522706048973</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.2498561075054191</c:v>
+                  <c:v>4.2645561075054195</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.13660040002447</c:v>
+                  <c:v>4.1525004000244703</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.3436935150071703</c:v>
+                  <c:v>4.3607935150071704</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.431618114777212</c:v>
+                  <c:v>4.449918114777212</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.4346143771255777</c:v>
+                  <c:v>4.4541143771255776</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.3948748408311813</c:v>
+                  <c:v>4.415574840831181</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.0897731345839663</c:v>
+                  <c:v>4.1116731345839668</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.3519901616521794</c:v>
+                  <c:v>4.3750901616521798</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.3577960676292333</c:v>
+                  <c:v>4.3820960676292335</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.3228965561921573</c:v>
+                  <c:v>4.3483965561921574</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.2249077349440345</c:v>
+                  <c:v>4.2516077349440344</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.0694685237443577</c:v>
+                  <c:v>4.0973685237443576</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0502414145306558</c:v>
+                  <c:v>4.0793414145306564</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.0376835236470292</c:v>
+                  <c:v>4.0679835236470288</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.2122036073723974</c:v>
+                  <c:v>4.2437036073723968</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.2313068885190752</c:v>
+                  <c:v>4.2640068885190754</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.6032139332707436</c:v>
+                  <c:v>4.6371139332707436</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.798348435078295</c:v>
+                  <c:v>4.8334484350782949</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.3975923145214955</c:v>
+                  <c:v>4.4338923145214952</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.1739883262423518</c:v>
+                  <c:v>4.2114883262423515</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4633133389741237</c:v>
+                  <c:v>4.5020133389741241</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6137714494957223</c:v>
+                  <c:v>4.6536714494957216</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.5716864690503751</c:v>
+                  <c:v>4.6127864690503753</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.4819931318439137</c:v>
+                  <c:v>4.5242931318439137</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.3391902267143836</c:v>
+                  <c:v>4.3826902267143835</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.3476088521899872</c:v>
+                  <c:v>4.3923088521899869</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.3736704984747421</c:v>
+                  <c:v>4.4195704984747426</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.4473100787162787</c:v>
+                  <c:v>4.4944100787162782</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.3064314280633864</c:v>
+                  <c:v>4.3547314280633866</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.3959177419934354</c:v>
+                  <c:v>4.4454177419934355</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.1743187415263661</c:v>
+                  <c:v>4.225018741526366</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.4211861750443315</c:v>
+                  <c:v>4.4730861750443314</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.5163152329290748</c:v>
+                  <c:v>4.5694152329290745</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.5627252620536796</c:v>
+                  <c:v>4.61702526205368</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.4776722503113362</c:v>
+                  <c:v>4.5331722503113356</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.6265764982965845</c:v>
+                  <c:v>4.6832764982965838</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.552122829942455</c:v>
+                  <c:v>4.610022829942455</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.3767081570848356</c:v>
+                  <c:v>4.4358081570848356</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.2125535085916193</c:v>
+                  <c:v>4.2728535085916191</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.3066300987616666</c:v>
+                  <c:v>4.3681300987616671</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.3758152147930103</c:v>
+                  <c:v>4.4385152147930107</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.404207319256944</c:v>
+                  <c:v>4.4681073192569443</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.421941500943821</c:v>
+                  <c:v>4.4870415009438211</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.6134103958423909</c:v>
+                  <c:v>4.6797103958423909</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.8044026703281544</c:v>
+                  <c:v>4.8719026703281543</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.7261035108137603</c:v>
+                  <c:v>4.7948035108137601</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.6370958214407878</c:v>
+                  <c:v>4.7069958214407883</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.4594042685901085</c:v>
+                  <c:v>4.5305042685901089</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.7003051896662935</c:v>
+                  <c:v>4.7726051896662938</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.7630872938980886</c:v>
+                  <c:v>4.8365872938980887</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.7548616970220587</c:v>
+                  <c:v>4.8295616970220587</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.7539784211807454</c:v>
+                  <c:v>4.8298784211807453</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5.0767315603985148</c:v>
+                  <c:v>5.1538315603985154</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5.0985577015165688</c:v>
+                  <c:v>5.1768577015165693</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.9216872777382425</c:v>
+                  <c:v>5.0011872777382429</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5.130573790456685</c:v>
+                  <c:v>5.2112737904566853</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.9001635147693854</c:v>
+                  <c:v>4.9820635147693855</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5.1137384429809023</c:v>
+                  <c:v>5.1968384429809023</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5.0732000556787344</c:v>
+                  <c:v>5.1575000556787343</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5.0954511732330827</c:v>
+                  <c:v>5.1809511732330833</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4.8701586762213616</c:v>
+                  <c:v>4.956858676221362</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4.4657357326536742</c:v>
+                  <c:v>4.5536357326536736</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4.3879018893126531</c:v>
+                  <c:v>4.4770018893126533</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4.3910296302933274</c:v>
+                  <c:v>4.4813296302933274</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4.6679493540349704</c:v>
+                  <c:v>4.7594493540349703</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4.8229352253205757</c:v>
+                  <c:v>4.9156352253205764</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.550941426124723</c:v>
+                  <c:v>4.6448414261247235</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4.2744497946919182</c:v>
+                  <c:v>4.3695497946919186</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4.487166583513706</c:v>
+                  <c:v>4.5834665835137054</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>4.5978726548249131</c:v>
+                  <c:v>4.6953726548249133</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4.3840966354923401</c:v>
+                  <c:v>4.4827966354923401</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>4.3545395943455478</c:v>
+                  <c:v>4.4544395943455477</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>4.2070529107496455</c:v>
+                  <c:v>4.3081529107496452</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.1966668288051459</c:v>
+                  <c:v>4.2989668288051464</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4.1133194870022338</c:v>
+                  <c:v>4.2168194870022342</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4.473876987418838</c:v>
+                  <c:v>4.5785769874188382</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4.4963579788004884</c:v>
+                  <c:v>4.6022579788004885</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4.3122690316880785</c:v>
+                  <c:v>4.4193690316880785</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>4.2897912525879498</c:v>
+                  <c:v>4.3980912525879496</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4.1019776004068431</c:v>
+                  <c:v>4.2114776004068428</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>4.0657727105157866</c:v>
+                  <c:v>4.1764727105157871</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>4.3573821070512446</c:v>
+                  <c:v>4.4692821070512441</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4.6941153304854799</c:v>
+                  <c:v>4.8072153304854801</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>4.1412410563852875</c:v>
+                  <c:v>4.2555410563852876</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.9318848451998019</c:v>
+                  <c:v>4.0473848451998018</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>4.4789165881360873</c:v>
+                  <c:v>4.5956165881360871</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4.4088543172439261</c:v>
+                  <c:v>4.5267543172439257</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>4.8608933990816023</c:v>
+                  <c:v>4.9799933990816028</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>5.0773513217705739</c:v>
+                  <c:v>5.1976513217705742</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>5.1360737078429128</c:v>
+                  <c:v>5.257573707842913</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>5.0014800980960121</c:v>
+                  <c:v>5.1241800980960122</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>5.0638459432689524</c:v>
+                  <c:v>5.1877459432689523</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5.0681746579123574</c:v>
+                  <c:v>5.1932746579123581</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5.0615342113261725</c:v>
+                  <c:v>5.1878342113261731</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.8508474726366595</c:v>
+                  <c:v>4.9783474726366599</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>5.2719520067407597</c:v>
+                  <c:v>5.40065200674076</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>4.8725313593483106</c:v>
+                  <c:v>5.0024313593483107</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>4.8832903198480206</c:v>
+                  <c:v>5.0143903198480206</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>5.2761517930371955</c:v>
+                  <c:v>5.4084517930371954</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>4.9269906144217606</c:v>
+                  <c:v>5.0604906144217612</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>4.8832191169964396</c:v>
+                  <c:v>5.0179191169964401</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>5.2084993983160235</c:v>
+                  <c:v>5.3443993983160238</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>5.2160673506468429</c:v>
+                  <c:v>5.3531673506468431</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.9725203112777496</c:v>
+                  <c:v>5.1108203112777497</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.9545567749043222</c:v>
+                  <c:v>5.0940567749043222</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>5.0864247997683174</c:v>
+                  <c:v>5.2271247997683172</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.9092100931104401</c:v>
+                  <c:v>5.0511100931104398</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>5.6472663344541107</c:v>
+                  <c:v>5.7903663344541112</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>5.6921811158665703</c:v>
+                  <c:v>5.8364811158665706</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>5.6246208785561986</c:v>
+                  <c:v>5.7701208785561988</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>5.1350138564427139</c:v>
+                  <c:v>5.281713856442714</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>5.1789635416650208</c:v>
+                  <c:v>5.3268635416650207</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>5.0535136839262442</c:v>
+                  <c:v>5.2026136839262449</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>5.2018711490437042</c:v>
+                  <c:v>5.3521711490437047</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.9958577983961288</c:v>
+                  <c:v>5.1473577983961292</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5.0334986488062166</c:v>
+                  <c:v>5.1861986488062168</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5.1023641347999993</c:v>
+                  <c:v>5.2562641347999994</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>5.0011309414717662</c:v>
+                  <c:v>5.1562309414717662</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>5.1611775367759591</c:v>
+                  <c:v>5.317477536775959</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.9747357068759097</c:v>
+                  <c:v>5.1322357068759104</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>5.3981503768623416</c:v>
+                  <c:v>5.5568503768623421</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>5.1153728934766622</c:v>
+                  <c:v>5.2752728934766626</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5.188490499767993</c:v>
+                  <c:v>5.3495904997679933</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5.0863826036622273</c:v>
+                  <c:v>5.2486826036622274</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5.8393214108002223</c:v>
+                  <c:v>6.0028214108002222</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>6.5554776825121044</c:v>
+                  <c:v>6.7201776825121042</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>6.2495040328875824</c:v>
+                  <c:v>6.415404032887583</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>6.0878980570240149</c:v>
+                  <c:v>6.2549980570240153</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>6.0012699870135027</c:v>
+                  <c:v>6.169569987013503</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>6.1064975704966207</c:v>
+                  <c:v>6.2759975704966209</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>6.2990678056021414</c:v>
+                  <c:v>6.4697678056021415</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.5636612691876568</c:v>
+                  <c:v>5.7355612691876567</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4.8473298772364268</c:v>
+                  <c:v>5.0204298772364266</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.0410436773861838</c:v>
+                  <c:v>5.2153436773861834</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4.7993693142229867</c:v>
+                  <c:v>4.9748693142229872</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.1593969368501096</c:v>
+                  <c:v>5.3360969368501099</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>4.9449812787747138</c:v>
+                  <c:v>5.122881278774714</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5.1011287321050132</c:v>
+                  <c:v>5.2802287321050132</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5.0077869175431138</c:v>
+                  <c:v>5.1880869175431137</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>4.6270471439341314</c:v>
+                  <c:v>4.8085471439341312</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>4.7064862718878109</c:v>
+                  <c:v>4.8891862718878105</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>4.9505840456206585</c:v>
+                  <c:v>5.1344840456206589</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>4.7412048739984698</c:v>
+                  <c:v>4.9263048739984701</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>4.5697712704626365</c:v>
+                  <c:v>4.7560712704626358</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4.2966861450483647</c:v>
+                  <c:v>4.4841861450483647</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>4.2483227552793288</c:v>
+                  <c:v>4.4370227552793287</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>4.2784367937927792</c:v>
+                  <c:v>4.4683367937927798</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>4.5107641301080879</c:v>
+                  <c:v>4.7018641301080875</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>4.7589005803306357</c:v>
+                  <c:v>4.951200580330636</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>4.8467651565453789</c:v>
+                  <c:v>5.0402651565453791</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>4.7841078867263418</c:v>
+                  <c:v>4.9788078867263419</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>4.5774494674449322</c:v>
+                  <c:v>4.7733494674449322</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>4.7508155688731817</c:v>
+                  <c:v>4.9479155688731815</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>4.8458776698978427</c:v>
+                  <c:v>5.0441776698978433</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5.0078780770873639</c:v>
+                  <c:v>5.2073780770873643</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>4.7302862833332409</c:v>
+                  <c:v>4.9309862833332412</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>4.3358075965997491</c:v>
+                  <c:v>4.5377075965997484</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>4.3138893953511745</c:v>
+                  <c:v>4.5169893953511746</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>4.4081310628539487</c:v>
+                  <c:v>4.6124310628539487</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>4.5753800501629609</c:v>
+                  <c:v>4.7808800501629607</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>4.6292311152001258</c:v>
+                  <c:v>4.8359311152001254</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>4.7754006577322947</c:v>
+                  <c:v>4.9833006577322951</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>4.6083809359642398</c:v>
+                  <c:v>4.8174809359642401</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>5.0965234641058004</c:v>
+                  <c:v>5.3068234641058005</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>5.4483277526493081</c:v>
+                  <c:v>5.6598277526493082</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>5.5070984824428892</c:v>
+                  <c:v>5.7197984824428891</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>5.3886386493672092</c:v>
+                  <c:v>5.6025386493672098</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>5.1362153178386132</c:v>
+                  <c:v>5.3513153178386137</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>5.0542283798654912</c:v>
+                  <c:v>5.2705283798654916</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>4.7253627153373072</c:v>
+                  <c:v>4.9428627153373075</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>4.7888778025560352</c:v>
+                  <c:v>5.0075778025560354</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>4.9480280422840623</c:v>
+                  <c:v>5.1679280422840623</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>5.4416522350220555</c:v>
+                  <c:v>5.6627522350220554</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>5.5675263517048084</c:v>
+                  <c:v>5.789826351704809</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>5.2958344394786936</c:v>
+                  <c:v>5.5193344394786941</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>5.5182316405627203</c:v>
+                  <c:v>5.7429316405627207</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>5.5570719296662832</c:v>
+                  <c:v>5.7829719296662834</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>5.7798714627394476</c:v>
+                  <c:v>6.0069714627394477</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>5.5799307432309107</c:v>
+                  <c:v>5.8082307432309106</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>5.3242078325283835</c:v>
+                  <c:v>5.5537078325283833</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>5.6444449708003246</c:v>
+                  <c:v>5.8751449708003243</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>5.5015379787787868</c:v>
+                  <c:v>5.7334379787787872</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>4.9660109782965511</c:v>
+                  <c:v>5.1991109782965514</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>4.956168114019345</c:v>
+                  <c:v>5.1904681140193452</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>4.9320450332970216</c:v>
+                  <c:v>5.1675450332970216</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>5.1861171946115672</c:v>
+                  <c:v>5.4228171946115671</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>5.0826263000438043</c:v>
+                  <c:v>5.3205263000438041</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>4.9879385258278397</c:v>
+                  <c:v>5.2270385258278402</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>5.0546574765119354</c:v>
+                  <c:v>5.2949574765119358</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>5.3869316659018365</c:v>
+                  <c:v>5.6284316659018367</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>5.0086278844514149</c:v>
+                  <c:v>5.2513278844514151</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>4.9799219644306802</c:v>
+                  <c:v>5.2238219644306803</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>4.5665264939671655</c:v>
+                  <c:v>4.8116264939671654</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>4.4684154668203542</c:v>
+                  <c:v>4.7147154668203539</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>4.4757592213762587</c:v>
+                  <c:v>4.7232592213762592</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>4.5096178760849961</c:v>
+                  <c:v>4.7583178760849956</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>4.6430289007473666</c:v>
+                  <c:v>4.892928900747366</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>4.6251363713161773</c:v>
+                  <c:v>4.8762363713161774</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>4.6033376888732009</c:v>
+                  <c:v>4.8556376888732009</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>5.5683455446964487</c:v>
+                  <c:v>5.8218455446964485</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>5.4505653157533578</c:v>
+                  <c:v>5.7052653157533584</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>5.7217313671217092</c:v>
+                  <c:v>5.9776313671217096</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>5.2531495169381897</c:v>
+                  <c:v>5.51024951693819</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>4.904130983371048</c:v>
+                  <c:v>5.1624309833710482</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>4.6111758217479872</c:v>
+                  <c:v>4.8706758217479873</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>4.595964817778543</c:v>
+                  <c:v>4.856664817778543</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>4.6221852962812617</c:v>
+                  <c:v>4.8840852962812615</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>4.9045711944485255</c:v>
+                  <c:v>5.1676711944485252</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>5.372559154353497</c:v>
+                  <c:v>5.6368591543534974</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>5.507689883863657</c:v>
+                  <c:v>5.7731898838636573</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>5.1285257386976655</c:v>
+                  <c:v>5.3952257386976656</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>5.577271685273077</c:v>
+                  <c:v>5.8451716852730771</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>5.6647048061438854</c:v>
+                  <c:v>5.9338048061438853</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>5.9568257721660993</c:v>
+                  <c:v>6.2271257721660991</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>5.4851240666424186</c:v>
+                  <c:v>5.7566240666424182</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>5.2653391332817954</c:v>
+                  <c:v>5.5380391332817958</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>6.0223123836125412</c:v>
+                  <c:v>6.2962123836125414</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>5.8531902993930709</c:v>
+                  <c:v>6.128290299393071</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>5.9399789442390274</c:v>
+                  <c:v>6.2162789442390274</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>5.9541431123142203</c:v>
+                  <c:v>6.2316431123142202</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>6.4630955850034928</c:v>
+                  <c:v>6.7417955850034925</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>6.4828109773538056</c:v>
+                  <c:v>6.7627109773538052</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>5.9630197390170858</c:v>
+                  <c:v>6.2441197390170862</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>6.1070185310526099</c:v>
+                  <c:v>6.3893185310526102</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>5.963308562174916</c:v>
+                  <c:v>6.2468085621749161</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>5.9957999078929216</c:v>
+                  <c:v>6.2804999078929216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8751,6 +8800,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B0B8-4C8F-8184-7C8C5F745F89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fuera de muestra</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$293:$A$304</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$293:$E$304</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.2648381965941118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1318179960098016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0232630285076869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9348943248216921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8631813074103771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8052108967443017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.758579510903723</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.721303954446662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6917478928139404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6685611863607814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6506298348662805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6370346767481667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8418-4B70-AE30-43F25F10B822}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8769,7 +8933,8 @@
         <c:axId val="452049407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="291"/>
+          <c:max val="303"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10691,15 +10856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>24825</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>182879</xdr:rowOff>
+      <xdr:rowOff>157226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>386861</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>56270</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>8276</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10729,15 +10894,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>56271</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>70338</xdr:rowOff>
+      <xdr:colOff>6620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209845</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47311</xdr:rowOff>
+      <xdr:colOff>160194</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10760,8 +10925,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5852160" y="1737360"/>
-          <a:ext cx="1862799" cy="1622893"/>
+          <a:off x="5790924" y="1601235"/>
+          <a:ext cx="1858248" cy="1615446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9026</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>197289</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>84442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7C907E-5AFF-7970-4578-EF5EBF55FBCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9070275" y="10709501"/>
+          <a:ext cx="12766435" cy="5784490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>753036</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174417</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EC6338-6396-277B-763B-B82C441DCDD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5751204" y="3483822"/>
+          <a:ext cx="1912191" cy="522148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11090,9 +11343,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1041D-06AF-49AF-806F-9FE5B43C81CB}">
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:K304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -11159,16 +11412,16 @@
         <v>3.6860054502187096</v>
       </c>
       <c r="E3">
-        <f>+alfa+beta+phi*D2+epsilon</f>
-        <v>3.7130399587674123</v>
+        <f>+alfa+beta*A2+phi*D2</f>
+        <v>3.6509399587674123</v>
       </c>
       <c r="F3">
         <f>+D3-E3</f>
-        <v>-2.7034508548702707E-2</v>
+        <v>3.5065491451297337E-2</v>
       </c>
       <c r="G3">
         <f>+F3*F3</f>
-        <v>7.3086465246987979E-4</v>
+        <v>1.2295886907210066E-3</v>
       </c>
       <c r="I3" t="s">
         <v>295</v>
@@ -11196,16 +11449,16 @@
         <v>3.5714498981591585</v>
       </c>
       <c r="E4">
-        <f>+alfa+beta+phi*D3+epsilon</f>
-        <v>3.785323096975457</v>
+        <f>+alfa+beta*A3+phi*D3</f>
+        <v>3.7244230969754573</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F67" si="1">+D4-E4</f>
-        <v>-0.21387319881629852</v>
+        <v>-0.15297319881629878</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="2">+F4*F4</f>
-        <v>4.5741745171915954E-2</v>
+        <v>2.3400799556090875E-2</v>
       </c>
       <c r="I4" t="s">
         <v>296</v>
@@ -11230,16 +11483,16 @@
         <v>3.8057163379326986</v>
       </c>
       <c r="E5">
-        <f>+alfa+beta+phi*D4+epsilon</f>
-        <v>3.6908033109711216</v>
+        <f>+alfa+beta*A4+phi*D4</f>
+        <v>3.6311033109711213</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.11491302696157701</v>
+        <v>0.17461302696157732</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>1.3205003765472127E-2</v>
+        <v>3.0489709184684528E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -11257,16 +11510,16 @@
         <v>3.5219065769438056</v>
       </c>
       <c r="E6">
-        <f>+alfa+beta+phi*D5+epsilon</f>
-        <v>3.8840965504282696</v>
+        <f>+alfa+beta*A5+phi*D5</f>
+        <v>3.8255965504282692</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>-0.36218997348446402</v>
+        <v>-0.30368997348446358</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.13118157689267676</v>
+        <v>9.2227599994994192E-2</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>297</v>
@@ -11290,16 +11543,16 @@
         <v>3.6411375613387351</v>
       </c>
       <c r="E7">
-        <f>+alfa+beta+phi*D6+epsilon</f>
-        <v>3.649925116636334</v>
+        <f>+alfa+beta*A6+phi*D6</f>
+        <v>3.5926251166363339</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>-8.7875552975988924E-3</v>
+        <v>4.8512444702401236E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>7.7221128108358365E-5</v>
+        <v>2.3534572910035379E-3</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>298</v>
@@ -11323,16 +11576,16 @@
         <v>3.730033904684201</v>
       </c>
       <c r="E8">
-        <f>+alfa+beta+phi*D7+epsilon</f>
-        <v>3.7483026018605905</v>
+        <f>+alfa+beta*A7+phi*D7</f>
+        <v>3.6922026018605902</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>-1.8268697176389459E-2</v>
+        <v>3.7831302823610802E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>3.3374529652262019E-4</v>
+        <v>1.4312074733317426E-3</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>299</v>
@@ -11356,23 +11609,19 @@
         <v>3.8997178278980629</v>
       </c>
       <c r="E9">
-        <f>+alfa+beta+phi*D8+epsilon</f>
-        <v>3.8216509747549336</v>
+        <f>+alfa+beta*A8+phi*D8</f>
+        <v>3.7667509747549337</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>7.8066853143129222E-2</v>
+        <v>0.13296685314312917</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>6.0944335596709049E-3</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6.2100000000000002E-2</v>
-      </c>
+        <v>1.7680184034786481E-2</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -11389,16 +11638,16 @@
         <v>4.2146297757055757</v>
       </c>
       <c r="E10">
-        <f>+alfa+beta+phi*D9+epsilon</f>
-        <v>3.9616571797986913</v>
+        <f>+alfa+beta*A9+phi*D9</f>
+        <v>3.9079571797986916</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.25297259590688448</v>
+        <v>0.30667259590688412</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>6.399513427986786E-2</v>
+        <v>9.4048081080267035E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -11416,16 +11665,16 @@
         <v>3.8439194012243045</v>
       </c>
       <c r="E11">
-        <f>+alfa+beta+phi*D10+epsilon</f>
-        <v>4.22149102793467</v>
+        <f>+alfa+beta*A10+phi*D10</f>
+        <v>4.1689910279346698</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>-0.37757162671036548</v>
+        <v>-0.32507162671036527</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0.14256033329671158</v>
+        <v>0.10567156249212306</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -11443,16 +11692,16 @@
         <v>3.7581669105903051</v>
       </c>
       <c r="E12">
-        <f>+alfa+beta+phi*D11+epsilon</f>
-        <v>3.915617897950173</v>
+        <f>+alfa+beta*A11+phi*D11</f>
+        <v>3.8643178979501731</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>-0.15745098735986796</v>
+        <v>-0.10615098735986805</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>2.4790813420597298E-2</v>
+        <v>1.1268032117474867E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -11470,16 +11719,16 @@
         <v>3.9719334114044424</v>
       </c>
       <c r="E13">
-        <f>+alfa+beta+phi*D12+epsilon</f>
-        <v>3.8448635179280606</v>
+        <f>+alfa+beta*A12+phi*D12</f>
+        <v>3.7947635179280601</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.12706989347638187</v>
+        <v>0.17716989347638235</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>1.6146757828099035E-2</v>
+        <v>3.1389171154432668E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -11497,16 +11746,16 @@
         <v>4.3024316702142986</v>
       </c>
       <c r="E14">
-        <f>+alfa+beta+phi*D13+epsilon</f>
-        <v>4.0212422577498055</v>
+        <f>+alfa+beta*A13+phi*D13</f>
+        <v>3.9723422577498053</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.28118941246449314</v>
+        <v>0.3300894124644933</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>7.9067485682126848E-2</v>
+        <v>0.10895902022115439</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -11524,16 +11773,16 @@
         <v>4.546987090763901</v>
       </c>
       <c r="E15">
-        <f>+alfa+beta+phi*D14+epsilon</f>
-        <v>4.2939363710938174</v>
+        <f>+alfa+beta*A14+phi*D14</f>
+        <v>4.2462363710938176</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.25305071967008352</v>
+        <v>0.30075071967008338</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>6.4034666725547196E-2</v>
+        <v>9.0450995382073074E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -11551,16 +11800,16 @@
         <v>4.3195786200809767</v>
       </c>
       <c r="E16">
-        <f>+alfa+beta+phi*D15+epsilon</f>
-        <v>4.4957190485892946</v>
+        <f>+alfa+beta*A15+phi*D15</f>
+        <v>4.4492190485892946</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>-0.1761404285083179</v>
+        <v>-0.12964042850831792</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>3.1025450555093849E-2</v>
+        <v>1.6806640703820288E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -11578,16 +11827,16 @@
         <v>4.2232687745487434</v>
       </c>
       <c r="E17">
-        <f>+alfa+beta+phi*D16+epsilon</f>
-        <v>4.3080843194288132</v>
+        <f>+alfa+beta*A16+phi*D16</f>
+        <v>4.2627843194288131</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>-8.4815544880069815E-2</v>
+        <v>-3.9515544880069697E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>7.1936766533031368E-3</v>
+        <v>1.5614782871688025E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -11605,16 +11854,16 @@
         <v>3.9559956250095145</v>
       </c>
       <c r="E18">
-        <f>+alfa+beta+phi*D17+epsilon</f>
-        <v>4.2286190658801681</v>
+        <f>+alfa+beta*A17+phi*D17</f>
+        <v>4.1845190658801679</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>-0.2726234408706536</v>
+        <v>-0.22852344087065335</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>7.4323540512154757E-2</v>
+        <v>5.2222963027362998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -11632,16 +11881,16 @@
         <v>3.7699481730201252</v>
       </c>
       <c r="E19">
-        <f>+alfa+beta+phi*D18+epsilon</f>
-        <v>4.00809199019535</v>
+        <f>+alfa+beta*A18+phi*D18</f>
+        <v>3.9651919901953501</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>-0.23814381717522481</v>
+        <v>-0.19524381717522488</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>5.6712477658786904E-2</v>
+        <v>3.8120148145152639E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -11659,16 +11908,16 @@
         <v>3.6820351486903604</v>
       </c>
       <c r="E20">
-        <f>+alfa+beta+phi*D19+epsilon</f>
-        <v>3.854584237558905</v>
+        <f>+alfa+beta*A19+phi*D19</f>
+        <v>3.8128842375589054</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>-0.17254908886854459</v>
+        <v>-0.13084908886854496</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2.9773188069364898E-2</v>
+        <v>1.7121484057728377E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -11686,16 +11935,16 @@
         <v>3.6647543129939981</v>
       </c>
       <c r="E21">
-        <f>+alfa+beta+phi*D20+epsilon</f>
-        <v>3.7820472011844162</v>
+        <f>+alfa+beta*A20+phi*D20</f>
+        <v>3.741547201184416</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>-0.11729288819041805</v>
+        <v>-7.6792888190417852E-2</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>1.3757621620049912E-2</v>
+        <v>5.8971476766260175E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -11713,16 +11962,16 @@
         <v>3.8211786828225529</v>
       </c>
       <c r="E22">
-        <f>+alfa+beta+phi*D21+epsilon</f>
-        <v>3.7677887836513477</v>
+        <f>+alfa+beta*A21+phi*D21</f>
+        <v>3.7284887836513474</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>5.338989917120518E-2</v>
+        <v>9.2689899171205514E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>2.8504813335114556E-3</v>
+        <v>8.5914174083682442E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -11740,16 +11989,16 @@
         <v>3.8813684803243746</v>
       </c>
       <c r="E23">
-        <f>+alfa+beta+phi*D22+epsilon</f>
-        <v>3.8968545311968885</v>
+        <f>+alfa+beta*A22+phi*D22</f>
+        <v>3.8587545311968885</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>-1.5486050872513868E-2</v>
+        <v>2.2613949127486155E-2</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>2.3981777162608754E-4</v>
+        <v>5.1139069514053186E-4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -11767,16 +12016,16 @@
         <v>3.7099217494242516</v>
       </c>
       <c r="E24">
-        <f>+alfa+beta+phi*D23+epsilon</f>
-        <v>3.9465171331156412</v>
+        <f>+alfa+beta*A23+phi*D23</f>
+        <v>3.9096171331156415</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>-0.23659538369138966</v>
+        <v>-0.19969538369138995</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>5.5977375584075895E-2</v>
+        <v>3.9878246267651449E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -11794,16 +12043,16 @@
         <v>3.5476922555868451</v>
       </c>
       <c r="E25">
-        <f>+alfa+beta+phi*D24+epsilon</f>
-        <v>3.8050564354499494</v>
+        <f>+alfa+beta*A24+phi*D24</f>
+        <v>3.7693564354499496</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>-0.25736417986310434</v>
+        <v>-0.22166417986310449</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>6.6236321076608318E-2</v>
+        <v>4.9135008634382742E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -11821,16 +12070,16 @@
         <v>3.6560853936304496</v>
       </c>
       <c r="E26">
-        <f>+alfa+beta+phi*D25+epsilon</f>
-        <v>3.6712008800847054</v>
+        <f>+alfa+beta*A25+phi*D25</f>
+        <v>3.6367008800847058</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>-1.5115486454255755E-2</v>
+        <v>1.9384513545743776E-2</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>2.2847793074878923E-4</v>
+        <v>3.7575936540512394E-4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -11848,16 +12097,16 @@
         <v>4.0173340951892076</v>
       </c>
       <c r="E27">
-        <f>+alfa+beta+phi*D26+epsilon</f>
-        <v>3.7606360582844838</v>
+        <f>+alfa+beta*A26+phi*D26</f>
+        <v>3.7273360582844837</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>0.25669803690472381</v>
+        <v>0.28999803690472392</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>6.589388215073895E-2</v>
+        <v>8.4098861408593614E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -11875,16 +12124,16 @@
         <v>3.9773804222458229</v>
       </c>
       <c r="E28">
-        <f>+alfa+beta+phi*D27+epsilon</f>
-        <v>4.0587023619406146</v>
+        <f>+alfa+beta*A27+phi*D27</f>
+        <v>4.0266023619406148</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>-8.1321939694791734E-2</v>
+        <v>-4.9221939694791939E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>6.6132578757233437E-3</v>
+        <v>2.4227993473177343E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -11902,16 +12151,16 @@
         <v>3.9402713913438072</v>
       </c>
       <c r="E29">
-        <f>+alfa+beta+phi*D28+epsilon</f>
-        <v>4.0257365863950278</v>
+        <f>+alfa+beta*A28+phi*D28</f>
+        <v>3.9948365863950279</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>-8.5465195051220633E-2</v>
+        <v>-5.4565195051220705E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>7.3042995651431877E-3</v>
+        <v>2.9773605109777606E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -11929,16 +12178,16 @@
         <v>3.6840608638455934</v>
       </c>
       <c r="E30">
-        <f>+alfa+beta+phi*D29+epsilon</f>
-        <v>3.9951179249977748</v>
+        <f>+alfa+beta*A29+phi*D29</f>
+        <v>3.9654179249977748</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>-0.31105706115218146</v>
+        <v>-0.2813570611521814</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>9.6756495292631958E-2</v>
+        <v>7.9161795860192341E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -11956,16 +12205,16 @@
         <v>3.5395757709702496</v>
       </c>
       <c r="E31">
-        <f>+alfa+beta+phi*D30+epsilon</f>
-        <v>3.7837186187589991</v>
+        <f>+alfa+beta*A30+phi*D30</f>
+        <v>3.7552186187589989</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>-0.24414284778874951</v>
+        <v>-0.21564284778874931</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>5.9605730126400511E-2</v>
+        <v>4.6501837802441708E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -11983,16 +12232,16 @@
         <v>3.7369266353157085</v>
       </c>
       <c r="E32">
-        <f>+alfa+beta+phi*D31+epsilon</f>
-        <v>3.6645039686275531</v>
+        <f>+alfa+beta*A31+phi*D31</f>
+        <v>3.6372039686275528</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>7.2422666688155335E-2</v>
+        <v>9.9722666688155659E-2</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>5.2450426502236441E-3</v>
+        <v>9.9446102513969896E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -12010,16 +12259,16 @@
         <v>3.8139392567060852</v>
       </c>
       <c r="E33">
-        <f>+alfa+beta+phi*D32+epsilon</f>
-        <v>3.8273381667989907</v>
+        <f>+alfa+beta*A32+phi*D32</f>
+        <v>3.8012381667989912</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>-1.3398910092905503E-2</v>
+        <v>1.2701089907094065E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>1.7953079167776494E-4</v>
+        <v>1.6131768482808672E-4</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -12037,16 +12286,16 @@
         <v>3.8908837440344803</v>
       </c>
       <c r="E34">
-        <f>+alfa+beta+phi*D33+epsilon</f>
-        <v>3.8908812807081903</v>
+        <f>+alfa+beta*A33+phi*D33</f>
+        <v>3.8659812807081906</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>2.4633262900586317E-6</v>
+        <v>2.4902463326289759E-2</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>6.0679764112940217E-12</v>
+        <v>6.2013267971720637E-4</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -12064,16 +12313,16 @@
         <v>4.1085603187335495</v>
       </c>
       <c r="E35">
-        <f>+alfa+beta+phi*D34+epsilon</f>
-        <v>3.9543681772028494</v>
+        <f>+alfa+beta*A34+phi*D34</f>
+        <v>3.9306681772028496</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>0.15419214153070016</v>
+        <v>0.17789214153069999</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>2.3775216509823466E-2</v>
+        <v>3.1645614018378593E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -12091,16 +12340,16 @@
         <v>3.9748244687539738</v>
       </c>
       <c r="E36">
-        <f>+alfa+beta+phi*D35+epsilon</f>
-        <v>4.1339731189870514</v>
+        <f>+alfa+beta*A35+phi*D35</f>
+        <v>4.1114731189870515</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>-0.15914865023307767</v>
+        <v>-0.13664865023307771</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>2.5328292871010492E-2</v>
+        <v>1.8672853610522008E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -12118,16 +12367,16 @@
         <v>4.1609234047673045</v>
       </c>
       <c r="E37">
-        <f>+alfa+beta+phi*D36+epsilon</f>
-        <v>4.0236276691689037</v>
+        <f>+alfa+beta*A36+phi*D36</f>
+        <v>4.0023276691689036</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>0.1372957355984008</v>
+        <v>0.1585957355984009</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>1.8850119013505983E-2</v>
+        <v>2.5152607349997885E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -12145,16 +12394,16 @@
         <v>4.2361020467522694</v>
       </c>
       <c r="E38">
-        <f>+alfa+beta+phi*D37+epsilon</f>
-        <v>4.1771779012735024</v>
+        <f>+alfa+beta*A37+phi*D37</f>
+        <v>4.1570779012735031</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>5.8924145478767009E-2</v>
+        <v>7.902414547876635E-2</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>3.4720549204028985E-3</v>
+        <v>6.2448155686492283E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -12172,16 +12421,16 @@
         <v>4.281324394878733</v>
       </c>
       <c r="E39">
-        <f>+alfa+beta+phi*D38+epsilon</f>
-        <v>4.239207798775297</v>
+        <f>+alfa+beta*A38+phi*D38</f>
+        <v>4.2203077987752975</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>4.2116596103435988E-2</v>
+        <v>6.1016596103435461E-2</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>1.7738076673399594E-3</v>
+        <v>3.7230250000497753E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -12199,16 +12448,16 @@
         <v>4.3436368339298621</v>
       </c>
       <c r="E40">
-        <f>+alfa+beta+phi*D39+epsilon</f>
-        <v>4.276520758214442</v>
+        <f>+alfa+beta*A39+phi*D39</f>
+        <v>4.2588207582144424</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>6.7116075715420109E-2</v>
+        <v>8.4816075715419714E-2</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>4.5045676194380053E-3</v>
+        <v>7.1937666997638101E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -12226,16 +12475,16 @@
         <v>4.391064182956149</v>
       </c>
       <c r="E41">
-        <f>+alfa+beta+phi*D40+epsilon</f>
-        <v>4.3279347516755289</v>
+        <f>+alfa+beta*A40+phi*D40</f>
+        <v>4.3114347516755291</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>6.3129431280620096E-2</v>
+        <v>7.9629431280619833E-2</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>3.9853250938145348E-3</v>
+        <v>6.3408463260749568E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -12253,16 +12502,16 @@
         <v>4.2474526200317104</v>
       </c>
       <c r="E42">
-        <f>+alfa+beta+phi*D41+epsilon</f>
-        <v>4.3670670573571186</v>
+        <f>+alfa+beta*A41+phi*D41</f>
+        <v>4.3517670573571188</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>-0.11961443732540822</v>
+        <v>-0.10431443732540835</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>1.4307613616674011E-2</v>
+        <v>1.0881501834516546E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -12280,16 +12529,16 @@
         <v>4.1758090977799789</v>
       </c>
       <c r="E43">
-        <f>+alfa+beta+phi*D42+epsilon</f>
-        <v>4.2485731567881642</v>
+        <f>+alfa+beta*A42+phi*D42</f>
+        <v>4.2344731567881642</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>-7.2764059008185278E-2</v>
+        <v>-5.8664059008185276E-2</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>5.2946082833466692E-3</v>
+        <v>3.4414718193158441E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -12307,16 +12556,16 @@
         <v>4.2502348279663371</v>
       </c>
       <c r="E44">
-        <f>+alfa+beta+phi*D43+epsilon</f>
-        <v>4.1894600865782605</v>
+        <f>+alfa+beta*A43+phi*D43</f>
+        <v>4.1765600865782604</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>6.0774741388076592E-2</v>
+        <v>7.3674741388076725E-2</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>3.69356919078759E-3</v>
+        <v>5.4279675185999856E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -12334,16 +12583,16 @@
         <v>4.1718544647803828</v>
       </c>
       <c r="E45">
-        <f>+alfa+beta+phi*D44+epsilon</f>
-        <v>4.2508687565550245</v>
+        <f>+alfa+beta*A44+phi*D44</f>
+        <v>4.2391687565550242</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>-7.9014291774641698E-2</v>
+        <v>-6.7314291774641433E-2</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>6.243258304648211E-3</v>
+        <v>4.5312138771215595E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -12361,16 +12610,16 @@
         <v>4.1319564031629614</v>
       </c>
       <c r="E46">
-        <f>+alfa+beta+phi*D45+epsilon</f>
-        <v>4.186197118890294</v>
+        <f>+alfa+beta*A45+phi*D45</f>
+        <v>4.1756971188902936</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>-5.4240715727332578E-2</v>
+        <v>-4.374071572733218E-2</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>2.9420552426133039E-3</v>
+        <v>1.9132502123392846E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -12388,16 +12637,16 @@
         <v>4.0122086071777749</v>
       </c>
       <c r="E47">
-        <f>+alfa+beta+phi*D46+epsilon</f>
-        <v>4.1532772282497596</v>
+        <f>+alfa+beta*A46+phi*D46</f>
+        <v>4.1439772282497591</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>-0.1410686210719847</v>
+        <v>-0.13176862107198417</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>1.9900355851151207E-2</v>
+        <v>1.736296949921215E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -12415,16 +12664,16 @@
         <v>4.1553050843616139</v>
       </c>
       <c r="E48">
-        <f>+alfa+beta+phi*D47+epsilon</f>
-        <v>4.0544733217823818</v>
+        <f>+alfa+beta*A47+phi*D47</f>
+        <v>4.0463733217823821</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>0.1008317625792321</v>
+        <v>0.10893176257923187</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>1.016704434483463E-2</v>
+        <v>1.1866128898618142E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -12442,16 +12691,16 @@
         <v>3.9529034937871614</v>
       </c>
       <c r="E49">
-        <f>+alfa+beta+phi*D48+epsilon</f>
-        <v>4.1725422251067679</v>
+        <f>+alfa+beta*A48+phi*D48</f>
+        <v>4.165642225106768</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>-0.21963873131960643</v>
+        <v>-0.21273873131960652</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>4.8241172295686259E-2</v>
+        <v>4.5257767803475735E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -12469,16 +12718,16 @@
         <v>4.085285241415928</v>
       </c>
       <c r="E50">
-        <f>+alfa+beta+phi*D49+epsilon</f>
-        <v>4.0055406727237868</v>
+        <f>+alfa+beta*A49+phi*D49</f>
+        <v>3.9998406727237867</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>7.9744568692141193E-2</v>
+        <v>8.5444568692141232E-2</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>6.3591962358956252E-3</v>
+        <v>7.3007743189860419E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -12496,16 +12745,16 @@
         <v>4.2717072926974851</v>
       </c>
       <c r="E51">
-        <f>+alfa+beta+phi*D50+epsilon</f>
-        <v>4.1147688526922819</v>
+        <f>+alfa+beta*A50+phi*D50</f>
+        <v>4.1102688526922817</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>0.15693844000520318</v>
+        <v>0.16143844000520335</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>2.4629673951266758E-2</v>
+        <v>2.6062369911313641E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -12523,16 +12772,16 @@
         <v>4.2912950425248182</v>
       </c>
       <c r="E52">
-        <f>+alfa+beta+phi*D51+epsilon</f>
-        <v>4.2685856872046948</v>
+        <f>+alfa+beta*A51+phi*D51</f>
+        <v>4.2652856872046945</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>2.2709355320123414E-2</v>
+        <v>2.6009355320123717E-2</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>5.1571481905561762E-4</v>
+        <v>6.7648656416844787E-4</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -12550,16 +12799,16 @@
         <v>4.2710870978047755</v>
       </c>
       <c r="E53">
-        <f>+alfa+beta+phi*D52+epsilon</f>
-        <v>4.2847475395872276</v>
+        <f>+alfa+beta*A52+phi*D52</f>
+        <v>4.2826475395872272</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>-1.3660441782452182E-2</v>
+        <v>-1.1560441782451747E-2</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>1.8660766969176535E-4</v>
+        <v>1.3364381420545612E-4</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -12577,16 +12826,16 @@
         <v>4.2770857379529597</v>
       </c>
       <c r="E54">
-        <f>+alfa+beta+phi*D53+epsilon</f>
-        <v>4.2680739643987202</v>
+        <f>+alfa+beta*A53+phi*D53</f>
+        <v>4.2671739643987197</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>9.0117735542394328E-3</v>
+        <v>9.9117735542399998E-3</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>8.1212062592889226E-5</v>
+        <v>9.8243254990531444E-5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -12604,16 +12853,16 @@
         <v>3.9325270616506738</v>
       </c>
       <c r="E55">
-        <f>+alfa+beta+phi*D54+epsilon</f>
-        <v>4.2730234423849867</v>
+        <f>+alfa+beta*A54+phi*D54</f>
+        <v>4.2733234423849868</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>-0.34049638073431288</v>
+        <v>-0.34079638073431306</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>0.11593778529316615</v>
+        <v>0.11614217312160686</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -12631,16 +12880,16 @@
         <v>3.9579695245712436</v>
       </c>
       <c r="E56">
-        <f>+alfa+beta+phi*D55+epsilon</f>
-        <v>3.9887280785679708</v>
+        <f>+alfa+beta*A55+phi*D55</f>
+        <v>3.9902280785679705</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>-3.0758553996727223E-2</v>
+        <v>-3.2258553996726835E-2</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>9.4608864396958424E-4</v>
+        <v>1.0406143059597409E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -12658,16 +12907,16 @@
         <v>3.9825842062948147</v>
       </c>
       <c r="E57">
-        <f>+alfa+beta+phi*D56+epsilon</f>
-        <v>4.0097206547237327</v>
+        <f>+alfa+beta*A56+phi*D56</f>
+        <v>4.0124206547237327</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>-2.7136448428918047E-2</v>
+        <v>-2.9836448428917972E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>7.3638683333532881E-4</v>
+        <v>8.9021365485148168E-4</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -12685,16 +12934,16 @@
         <v>4.0812516522214626</v>
       </c>
       <c r="E58">
-        <f>+alfa+beta+phi*D57+epsilon</f>
-        <v>4.0300302286138514</v>
+        <f>+alfa+beta*A57+phi*D57</f>
+        <v>4.0339302286138512</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>5.1221423607611172E-2</v>
+        <v>4.7321423607611379E-2</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>2.6236342363903471E-3</v>
+        <v>2.2393171322509994E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -12712,16 +12961,16 @@
         <v>4.2570617287411725</v>
       </c>
       <c r="E59">
-        <f>+alfa+beta+phi*D58+epsilon</f>
-        <v>4.1114407382479286</v>
+        <f>+alfa+beta*A58+phi*D58</f>
+        <v>4.1165407382479282</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>0.14562099049324395</v>
+        <v>0.14052099049324429</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>2.1205472872233445E-2</v>
+        <v>1.9746148769202453E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -12739,16 +12988,16 @@
         <v>4.225761998403236</v>
       </c>
       <c r="E60">
-        <f>+alfa+beta+phi*D59+epsilon</f>
-        <v>4.2565016323843414</v>
+        <f>+alfa+beta*A59+phi*D59</f>
+        <v>4.262801632384341</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>-3.0739633981105463E-2</v>
+        <v>-3.7039633981104991E-2</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>9.4492509729233369E-4</v>
+        <v>1.3719344854542276E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -12766,16 +13015,16 @@
         <v>4.206854787551177</v>
       </c>
       <c r="E61">
-        <f>+alfa+beta+phi*D60+epsilon</f>
-        <v>4.2306762248825098</v>
+        <f>+alfa+beta*A60+phi*D60</f>
+        <v>4.2381762248825092</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>-2.3821437331332795E-2</v>
+        <v>-3.1321437331332191E-2</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>5.6746087653061577E-4</v>
+        <v>9.810324365005698E-4</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -12793,16 +13042,16 @@
         <v>4.4372547249255767</v>
       </c>
       <c r="E62">
-        <f>+alfa+beta+phi*D61+epsilon</f>
-        <v>4.215075885208476</v>
+        <f>+alfa+beta*A61+phi*D61</f>
+        <v>4.2237758852084752</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>0.22217883971710073</v>
+        <v>0.21347883971710147</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>4.9363436818037135E-2</v>
+        <v>4.5573215006959898E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -12820,16 +13069,16 @@
         <v>4.3314828462470096</v>
       </c>
       <c r="E63">
-        <f>+alfa+beta+phi*D62+epsilon</f>
-        <v>4.4051788735360935</v>
+        <f>+alfa+beta*A62+phi*D62</f>
+        <v>4.4150788735360935</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>-7.3696027289083865E-2</v>
+        <v>-8.3596027289083885E-2</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
-        <v>5.4311044381933939E-3</v>
+        <v>6.9882957785172579E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -12847,16 +13096,16 @@
         <v>4.2520820288950851</v>
       </c>
       <c r="E64">
-        <f>+alfa+beta+phi*D63+epsilon</f>
-        <v>4.3179064964384075</v>
+        <f>+alfa+beta*A63+phi*D63</f>
+        <v>4.3290064964384074</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>-6.5824467543322385E-2</v>
+        <v>-7.6924467543322272E-2</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
-        <v>4.3328605273619024E-3</v>
+        <v>5.9173737068236414E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -12874,16 +13123,16 @@
         <v>4.245609345055021</v>
       </c>
       <c r="E65">
-        <f>+alfa+beta+phi*D64+epsilon</f>
-        <v>4.2523928820413346</v>
+        <f>+alfa+beta*A64+phi*D64</f>
+        <v>4.2646928820413343</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>-6.7835369863136208E-3</v>
+        <v>-1.9083536986313376E-2</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
-        <v>4.6016374044684882E-5</v>
+        <v>3.6418138390799062E-4</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -12901,16 +13150,16 @@
         <v>4.2490075233370739</v>
       </c>
       <c r="E66">
-        <f>+alfa+beta+phi*D65+epsilon</f>
-        <v>4.2470522706048977</v>
+        <f>+alfa+beta*A65+phi*D65</f>
+        <v>4.2605522706048973</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>1.955252732176227E-3</v>
+        <v>-1.1544747267823396E-2</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
-        <v>3.8230132466826006E-6</v>
+        <v>1.3328118947791577E-4</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -12928,16 +13177,16 @@
         <v>4.1117445158459223</v>
       </c>
       <c r="E67">
-        <f>+alfa+beta+phi*D66+epsilon</f>
-        <v>4.2498561075054191</v>
+        <f>+alfa+beta*A66+phi*D66</f>
+        <v>4.2645561075054195</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
-        <v>-0.13811159165949682</v>
+        <v>-0.1528115916594972</v>
       </c>
       <c r="G67">
         <f t="shared" si="2"/>
-        <v>1.9074811750719591E-2</v>
+        <v>2.3351382545508916E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -12955,16 +13204,16 @@
         <v>4.3627360501844263</v>
       </c>
       <c r="E68">
-        <f>+alfa+beta+phi*D67+epsilon</f>
-        <v>4.13660040002447</v>
+        <f>+alfa+beta*A67+phi*D67</f>
+        <v>4.1525004000244703</v>
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F131" si="4">+D68-E68</f>
-        <v>0.22613565015995629</v>
+        <v>0.21023565015995604</v>
       </c>
       <c r="G68">
         <f t="shared" ref="G68:G131" si="5">+F68*F68</f>
-        <v>5.113733227326614E-2</v>
+        <v>4.4199028598179424E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -12982,16 +13231,16 @@
         <v>4.4692984059837739</v>
       </c>
       <c r="E69">
-        <f>+alfa+beta+phi*D68+epsilon</f>
-        <v>4.3436935150071703</v>
+        <f>+alfa+beta*A68+phi*D68</f>
+        <v>4.3607935150071704</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
-        <v>0.12560489097660366</v>
+        <v>0.10850489097660354</v>
       </c>
       <c r="G69">
         <f t="shared" si="5"/>
-        <v>1.5776588637244491E-2</v>
+        <v>1.177331136584462E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -13009,16 +13258,16 @@
         <v>4.4729297989644623</v>
       </c>
       <c r="E70">
-        <f>+alfa+beta+phi*D69+epsilon</f>
-        <v>4.431618114777212</v>
+        <f>+alfa+beta*A69+phi*D69</f>
+        <v>4.449918114777212</v>
       </c>
       <c r="F70">
         <f t="shared" si="4"/>
-        <v>4.1311684187250286E-2</v>
+        <v>2.3011684187250303E-2</v>
       </c>
       <c r="G70">
         <f t="shared" si="5"/>
-        <v>1.7066552503871054E-3</v>
+        <v>5.2953760913374568E-4</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -13036,16 +13285,16 @@
         <v>4.4247665020375484</v>
       </c>
       <c r="E71">
-        <f>+alfa+beta+phi*D70+epsilon</f>
-        <v>4.4346143771255777</v>
+        <f>+alfa+beta*A70+phi*D70</f>
+        <v>4.4541143771255776</v>
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
-        <v>-9.847875088029312E-3</v>
+        <v>-2.9347875088029163E-2</v>
       </c>
       <c r="G71">
         <f t="shared" si="5"/>
-        <v>9.6980643749428326E-5</v>
+        <v>8.612977721825627E-4</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -13063,16 +13312,16 @@
         <v>4.0549910733050138</v>
       </c>
       <c r="E72">
-        <f>+alfa+beta+phi*D71+epsilon</f>
-        <v>4.3948748408311813</v>
+        <f>+alfa+beta*A71+phi*D71</f>
+        <v>4.415574840831181</v>
       </c>
       <c r="F72">
         <f t="shared" si="4"/>
-        <v>-0.33988376752616745</v>
+        <v>-0.36058376752616716</v>
       </c>
       <c r="G72">
         <f t="shared" si="5"/>
-        <v>0.11552097542778184</v>
+        <v>0.13002065340336497</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -13090,16 +13339,16 @@
         <v>4.3727913727453398</v>
       </c>
       <c r="E73">
-        <f>+alfa+beta+phi*D72+epsilon</f>
-        <v>4.0897731345839663</v>
+        <f>+alfa+beta*A72+phi*D72</f>
+        <v>4.1116731345839668</v>
       </c>
       <c r="F73">
         <f t="shared" si="4"/>
-        <v>0.2830182381613735</v>
+        <v>0.26111823816137303</v>
       </c>
       <c r="G73">
         <f t="shared" si="5"/>
-        <v>8.0099323131967937E-2</v>
+        <v>6.8182734300499523E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -13117,16 +13366,16 @@
         <v>4.3798279816134214</v>
       </c>
       <c r="E74">
-        <f>+alfa+beta+phi*D73+epsilon</f>
-        <v>4.3519901616521794</v>
+        <f>+alfa+beta*A73+phi*D73</f>
+        <v>4.3750901616521798</v>
       </c>
       <c r="F74">
         <f t="shared" si="4"/>
-        <v>2.7837819961241905E-2</v>
+        <v>4.7378199612415628E-3</v>
       </c>
       <c r="G74">
         <f t="shared" si="5"/>
-        <v>7.7494422019451828E-4</v>
+        <v>2.2446937985139004E-5</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -13144,16 +13393,16 @@
         <v>4.3375306704546812</v>
       </c>
       <c r="E75">
-        <f>+alfa+beta+phi*D74+epsilon</f>
-        <v>4.3577960676292333</v>
+        <f>+alfa+beta*A74+phi*D74</f>
+        <v>4.3820960676292335</v>
       </c>
       <c r="F75">
         <f t="shared" si="4"/>
-        <v>-2.0265397174552113E-2</v>
+        <v>-4.4565397174552324E-2</v>
       </c>
       <c r="G75">
         <f t="shared" si="5"/>
-        <v>4.1068632264234476E-4</v>
+        <v>1.9860746253255964E-3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -13171,16 +13420,16 @@
         <v>4.2187707368125498</v>
       </c>
       <c r="E76">
-        <f>+alfa+beta+phi*D75+epsilon</f>
-        <v>4.3228965561921573</v>
+        <f>+alfa+beta*A75+phi*D75</f>
+        <v>4.3483965561921574</v>
       </c>
       <c r="F76">
         <f t="shared" si="4"/>
-        <v>-0.10412581937960752</v>
+        <v>-0.1296258193796076</v>
       </c>
       <c r="G76">
         <f t="shared" si="5"/>
-        <v>1.0842186261474649E-2</v>
+        <v>1.6802853049834653E-2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -13198,16 +13447,16 @@
         <v>4.0303824066711407</v>
       </c>
       <c r="E77">
-        <f>+alfa+beta+phi*D76+epsilon</f>
-        <v>4.2249077349440345</v>
+        <f>+alfa+beta*A76+phi*D76</f>
+        <v>4.2516077349440344</v>
       </c>
       <c r="F77">
         <f t="shared" si="4"/>
-        <v>-0.19452532827289382</v>
+        <v>-0.22122532827289376</v>
       </c>
       <c r="G77">
         <f t="shared" si="5"/>
-        <v>3.7840103339677099E-2</v>
+        <v>4.8940645869449607E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -13225,16 +13474,16 @@
         <v>4.0070796443226957</v>
       </c>
       <c r="E78">
-        <f>+alfa+beta+phi*D77+epsilon</f>
-        <v>4.0694685237443577</v>
+        <f>+alfa+beta*A77+phi*D77</f>
+        <v>4.0973685237443576</v>
       </c>
       <c r="F78">
         <f t="shared" si="4"/>
-        <v>-6.2388879421662047E-2</v>
+        <v>-9.0288879421661861E-2</v>
       </c>
       <c r="G78">
         <f t="shared" si="5"/>
-        <v>3.8923722754906861E-3</v>
+        <v>8.1520817472193943E-3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -13252,16 +13501,16 @@
         <v>3.9918598032323707</v>
       </c>
       <c r="E79">
-        <f>+alfa+beta+phi*D78+epsilon</f>
-        <v>4.0502414145306558</v>
+        <f>+alfa+beta*A78+phi*D78</f>
+        <v>4.0793414145306564</v>
       </c>
       <c r="F79">
         <f t="shared" si="4"/>
-        <v>-5.8381611298285119E-2</v>
+        <v>-8.7481611298285689E-2</v>
       </c>
       <c r="G79">
         <f t="shared" si="5"/>
-        <v>3.4084125377840525E-3</v>
+        <v>7.6530323153443458E-3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -13279,16 +13528,16 @@
         <v>4.2033736606137406</v>
       </c>
       <c r="E80">
-        <f>+alfa+beta+phi*D79+epsilon</f>
-        <v>4.0376835236470292</v>
+        <f>+alfa+beta*A79+phi*D79</f>
+        <v>4.0679835236470288</v>
       </c>
       <c r="F80">
         <f t="shared" si="4"/>
-        <v>0.16569013696671142</v>
+        <v>0.13539013696671187</v>
       </c>
       <c r="G80">
         <f t="shared" si="5"/>
-        <v>2.7453221488047592E-2</v>
+        <v>1.8330489187865E-2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -13306,16 +13555,16 @@
         <v>4.2265263465265734</v>
       </c>
       <c r="E81">
-        <f>+alfa+beta+phi*D80+epsilon</f>
-        <v>4.2122036073723974</v>
+        <f>+alfa+beta*A80+phi*D80</f>
+        <v>4.2437036073723968</v>
       </c>
       <c r="F81">
         <f t="shared" si="4"/>
-        <v>1.4322739154176034E-2</v>
+        <v>-1.7177260845823383E-2</v>
       </c>
       <c r="G81">
         <f t="shared" si="5"/>
-        <v>2.0514085687856721E-4</v>
+        <v>2.9505829016545704E-4</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -13333,16 +13582,16 @@
         <v>4.6772681290398062</v>
       </c>
       <c r="E82">
-        <f>+alfa+beta+phi*D81+epsilon</f>
-        <v>4.2313068885190752</v>
+        <f>+alfa+beta*A81+phi*D81</f>
+        <v>4.2640068885190754</v>
       </c>
       <c r="F82">
         <f t="shared" si="4"/>
-        <v>0.44596124052073094</v>
+        <v>0.41326124052073077</v>
       </c>
       <c r="G82">
         <f t="shared" si="5"/>
-        <v>0.19888142804678924</v>
+        <v>0.17078485291673329</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -13360,16 +13609,16 @@
         <v>4.9137661314729071</v>
       </c>
       <c r="E83">
-        <f>+alfa+beta+phi*D82+epsilon</f>
-        <v>4.6032139332707436</v>
+        <f>+alfa+beta*A82+phi*D82</f>
+        <v>4.6371139332707436</v>
       </c>
       <c r="F83">
         <f t="shared" si="4"/>
-        <v>0.31055219820216351</v>
+        <v>0.27665219820216347</v>
       </c>
       <c r="G83">
         <f t="shared" si="5"/>
-        <v>9.6442667808195853E-2</v>
+        <v>7.6536438770089144E-2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -13387,16 +13636,16 @@
         <v>4.428060010327834</v>
       </c>
       <c r="E84">
-        <f>+alfa+beta+phi*D83+epsilon</f>
-        <v>4.798348435078295</v>
+        <f>+alfa+beta*A83+phi*D83</f>
+        <v>4.8334484350782949</v>
       </c>
       <c r="F84">
         <f t="shared" si="4"/>
-        <v>-0.37028842475046098</v>
+        <v>-0.40538842475046089</v>
       </c>
       <c r="G84">
         <f t="shared" si="5"/>
-        <v>0.1371135175041778</v>
+        <v>0.16433977492166008</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -13414,16 +13663,16 @@
         <v>4.1570577217820288</v>
       </c>
       <c r="E85">
-        <f>+alfa+beta+phi*D84+epsilon</f>
-        <v>4.3975923145214955</v>
+        <f>+alfa+beta*A84+phi*D84</f>
+        <v>4.4338923145214952</v>
       </c>
       <c r="F85">
         <f t="shared" si="4"/>
-        <v>-0.24053459273946665</v>
+        <v>-0.27683459273946642</v>
       </c>
       <c r="G85">
         <f t="shared" si="5"/>
-        <v>5.7856890304341081E-2</v>
+        <v>7.6637391737226238E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -13441,16 +13690,16 @@
         <v>4.5077122033379275</v>
       </c>
       <c r="E86">
-        <f>+alfa+beta+phi*D85+epsilon</f>
-        <v>4.1739883262423518</v>
+        <f>+alfa+beta*A85+phi*D85</f>
+        <v>4.2114883262423515</v>
       </c>
       <c r="F86">
         <f t="shared" si="4"/>
-        <v>0.33372387709557572</v>
+        <v>0.29622387709557607</v>
       </c>
       <c r="G86">
         <f t="shared" si="5"/>
-        <v>0.11137162614370293</v>
+        <v>8.7748585361534959E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -13468,16 +13717,16 @@
         <v>4.6900635674411859</v>
       </c>
       <c r="E87">
-        <f>+alfa+beta+phi*D86+epsilon</f>
-        <v>4.4633133389741237</v>
+        <f>+alfa+beta*A86+phi*D86</f>
+        <v>4.5020133389741241</v>
       </c>
       <c r="F87">
         <f t="shared" si="4"/>
-        <v>0.22675022846706216</v>
+        <v>0.18805022846706176</v>
       </c>
       <c r="G87">
         <f t="shared" si="5"/>
-        <v>5.1415666109864887E-2</v>
+        <v>3.5362888426514125E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -13495,16 +13744,16 @@
         <v>4.639057652466823</v>
       </c>
       <c r="E88">
-        <f>+alfa+beta+phi*D87+epsilon</f>
-        <v>4.6137714494957223</v>
+        <f>+alfa+beta*A87+phi*D87</f>
+        <v>4.6536714494957216</v>
       </c>
       <c r="F88">
         <f t="shared" si="4"/>
-        <v>2.5286202971100735E-2</v>
+        <v>-1.4613797028898645E-2</v>
       </c>
       <c r="G88">
         <f t="shared" si="5"/>
-        <v>6.3939206069570369E-4</v>
+        <v>2.1356306360184688E-4</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -13522,16 +13771,16 @@
         <v>4.530351632340218</v>
       </c>
       <c r="E89">
-        <f>+alfa+beta+phi*D88+epsilon</f>
-        <v>4.5716864690503751</v>
+        <f>+alfa+beta*A88+phi*D88</f>
+        <v>4.6127864690503753</v>
       </c>
       <c r="F89">
         <f t="shared" si="4"/>
-        <v>-4.1334836710157141E-2</v>
+        <v>-8.2434836710157278E-2</v>
       </c>
       <c r="G89">
         <f t="shared" si="5"/>
-        <v>1.7085687258553545E-3</v>
+        <v>6.7955023034302941E-3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -13549,16 +13798,16 @@
         <v>4.3572781804804075</v>
       </c>
       <c r="E90">
-        <f>+alfa+beta+phi*D89+epsilon</f>
-        <v>4.4819931318439137</v>
+        <f>+alfa+beta*A89+phi*D89</f>
+        <v>4.5242931318439137</v>
       </c>
       <c r="F90">
         <f t="shared" si="4"/>
-        <v>-0.12471495136350619</v>
+        <v>-0.16701495136350619</v>
       </c>
       <c r="G90">
         <f t="shared" si="5"/>
-        <v>1.5553819093601713E-2</v>
+        <v>2.789399397895434E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -13576,16 +13825,16 @@
         <v>4.3674813382498936</v>
       </c>
       <c r="E91">
-        <f>+alfa+beta+phi*D90+epsilon</f>
-        <v>4.3391902267143836</v>
+        <f>+alfa+beta*A90+phi*D90</f>
+        <v>4.3826902267143835</v>
       </c>
       <c r="F91">
         <f t="shared" si="4"/>
-        <v>2.8291111535510005E-2</v>
+        <v>-1.5208888464489867E-2</v>
       </c>
       <c r="G91">
         <f t="shared" si="5"/>
-        <v>8.0038699191466731E-4</v>
+        <v>2.3131028832529295E-4</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -13603,16 +13852,16 @@
         <v>4.3990673839228487</v>
       </c>
       <c r="E92">
-        <f>+alfa+beta+phi*D91+epsilon</f>
-        <v>4.3476088521899872</v>
+        <f>+alfa+beta*A91+phi*D91</f>
+        <v>4.3923088521899869</v>
       </c>
       <c r="F92">
         <f t="shared" si="4"/>
-        <v>5.1458531732861523E-2</v>
+        <v>6.7585317328617833E-3</v>
       </c>
       <c r="G92">
         <f t="shared" si="5"/>
-        <v>2.6479804881019164E-3</v>
+        <v>4.5677751184099702E-5</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -13630,16 +13879,16 @@
         <v>4.4883166630908722</v>
       </c>
       <c r="E93">
-        <f>+alfa+beta+phi*D92+epsilon</f>
-        <v>4.3736704984747421</v>
+        <f>+alfa+beta*A92+phi*D92</f>
+        <v>4.4195704984747426</v>
       </c>
       <c r="F93">
         <f t="shared" si="4"/>
-        <v>0.11464616461613009</v>
+        <v>6.874616461612959E-2</v>
       </c>
       <c r="G93">
         <f t="shared" si="5"/>
-        <v>1.3143743061188798E-2</v>
+        <v>4.7260351494279882E-3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -13657,16 +13906,16 @@
         <v>4.3175753582152305</v>
       </c>
       <c r="E94">
-        <f>+alfa+beta+phi*D93+epsilon</f>
-        <v>4.4473100787162787</v>
+        <f>+alfa+beta*A93+phi*D93</f>
+        <v>4.4944100787162782</v>
       </c>
       <c r="F94">
         <f t="shared" si="4"/>
-        <v>-0.12973472050104817</v>
+        <v>-0.17683472050104765</v>
       </c>
       <c r="G94">
         <f t="shared" si="5"/>
-        <v>1.6831097703485089E-2</v>
+        <v>3.1270518374683642E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -13684,16 +13933,16 @@
         <v>4.4260304714500496</v>
       </c>
       <c r="E95">
-        <f>+alfa+beta+phi*D94+epsilon</f>
-        <v>4.3064314280633864</v>
+        <f>+alfa+beta*A94+phi*D94</f>
+        <v>4.3547314280633866</v>
       </c>
       <c r="F95">
         <f t="shared" si="4"/>
-        <v>0.11959904338666316</v>
+        <v>7.129904338666293E-2</v>
       </c>
       <c r="G95">
         <f t="shared" si="5"/>
-        <v>1.4303931179004938E-2</v>
+        <v>5.0835535878532428E-3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -13711,16 +13960,16 @@
         <v>4.1574581766166112</v>
       </c>
       <c r="E96">
-        <f>+alfa+beta+phi*D95+epsilon</f>
-        <v>4.3959177419934354</v>
+        <f>+alfa+beta*A95+phi*D95</f>
+        <v>4.4454177419934355</v>
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
-        <v>-0.23845956537682422</v>
+        <v>-0.28795956537682432</v>
       </c>
       <c r="G96">
         <f t="shared" si="5"/>
-        <v>5.6862964319703904E-2</v>
+        <v>8.2920711292009563E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -13738,16 +13987,16 @@
         <v>4.4566551630642737</v>
       </c>
       <c r="E97">
-        <f>+alfa+beta+phi*D96+epsilon</f>
-        <v>4.1743187415263661</v>
+        <f>+alfa+beta*A96+phi*D96</f>
+        <v>4.225018741526366</v>
       </c>
       <c r="F97">
         <f t="shared" si="4"/>
-        <v>0.28233642153790761</v>
+        <v>0.23163642153790764</v>
       </c>
       <c r="G97">
         <f t="shared" si="5"/>
-        <v>7.9713854926831057E-2</v>
+        <v>5.3655431782887245E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -13765,16 +14014,16 @@
         <v>4.5719491369883345</v>
       </c>
       <c r="E98">
-        <f>+alfa+beta+phi*D97+epsilon</f>
-        <v>4.4211861750443315</v>
+        <f>+alfa+beta*A97+phi*D97</f>
+        <v>4.4730861750443314</v>
       </c>
       <c r="F98">
         <f t="shared" si="4"/>
-        <v>0.15076296194400296</v>
+        <v>9.8862961944003125E-2</v>
       </c>
       <c r="G98">
         <f t="shared" si="5"/>
-        <v>2.2729470694128884E-2</v>
+        <v>9.7738852443414095E-3</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -13792,16 +14041,16 @@
         <v>4.6281968998347836</v>
       </c>
       <c r="E99">
-        <f>+alfa+beta+phi*D98+epsilon</f>
-        <v>4.5163152329290748</v>
+        <f>+alfa+beta*A98+phi*D98</f>
+        <v>4.5694152329290745</v>
       </c>
       <c r="F99">
         <f t="shared" si="4"/>
-        <v>0.11188166690570878</v>
+        <v>5.8781666905709073E-2</v>
       </c>
       <c r="G99">
         <f t="shared" si="5"/>
-        <v>1.2517507389599971E-2</v>
+        <v>3.4552843642137333E-3</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -13819,16 +14068,16 @@
         <v>4.5251148349428387</v>
       </c>
       <c r="E100">
-        <f>+alfa+beta+phi*D99+epsilon</f>
-        <v>4.5627252620536796</v>
+        <f>+alfa+beta*A99+phi*D99</f>
+        <v>4.61702526205368</v>
       </c>
       <c r="F100">
         <f t="shared" si="4"/>
-        <v>-3.7610427110840838E-2</v>
+        <v>-9.1910427110841297E-2</v>
       </c>
       <c r="G100">
         <f t="shared" si="5"/>
-        <v>1.4145442274598715E-3</v>
+        <v>8.4475266116972713E-3</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -13846,16 +14095,16 @@
         <v>4.7055829575767598</v>
       </c>
       <c r="E101">
-        <f>+alfa+beta+phi*D100+epsilon</f>
-        <v>4.4776722503113362</v>
+        <f>+alfa+beta*A100+phi*D100</f>
+        <v>4.5331722503113356</v>
       </c>
       <c r="F101">
         <f t="shared" si="4"/>
-        <v>0.22791070726542362</v>
+        <v>0.17241070726542418</v>
       </c>
       <c r="G101">
         <f t="shared" si="5"/>
-        <v>5.1943290486225618E-2</v>
+        <v>2.9725451979763791E-2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -13873,16 +14122,16 @@
         <v>4.6153470245333361</v>
       </c>
       <c r="E102">
-        <f>+alfa+beta+phi*D101+epsilon</f>
-        <v>4.6265764982965845</v>
+        <f>+alfa+beta*A101+phi*D101</f>
+        <v>4.6832764982965838</v>
       </c>
       <c r="F102">
         <f t="shared" si="4"/>
-        <v>-1.1229473763248343E-2</v>
+        <v>-6.792947376324765E-2</v>
       </c>
       <c r="G102">
         <f t="shared" si="5"/>
-        <v>1.2610108099948291E-4</v>
+        <v>4.6144134057517511E-3</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -13900,16 +14149,16 @@
         <v>4.4027489481091209</v>
       </c>
       <c r="E103">
-        <f>+alfa+beta+phi*D102+epsilon</f>
-        <v>4.552122829942455</v>
+        <f>+alfa+beta*A102+phi*D102</f>
+        <v>4.610022829942455</v>
       </c>
       <c r="F103">
         <f t="shared" si="4"/>
-        <v>-0.14937388183333411</v>
+        <v>-0.20727388183333417</v>
       </c>
       <c r="G103">
         <f t="shared" si="5"/>
-        <v>2.231255657395886E-2</v>
+        <v>4.2962462090258981E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -13927,16 +14176,16 @@
         <v>4.2037977319011262</v>
       </c>
       <c r="E104">
-        <f>+alfa+beta+phi*D103+epsilon</f>
-        <v>4.3767081570848356</v>
+        <f>+alfa+beta*A103+phi*D103</f>
+        <v>4.4358081570848356</v>
       </c>
       <c r="F104">
         <f t="shared" si="4"/>
-        <v>-0.17291042518370947</v>
+        <v>-0.2320104251837094</v>
       </c>
       <c r="G104">
         <f t="shared" si="5"/>
-        <v>2.989801513721119E-2</v>
+        <v>5.3828837393925619E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -13954,16 +14203,16 @@
         <v>4.3178161419969303</v>
       </c>
       <c r="E105">
-        <f>+alfa+beta+phi*D104+epsilon</f>
-        <v>4.2125535085916193</v>
+        <f>+alfa+beta*A104+phi*D104</f>
+        <v>4.2728535085916191</v>
       </c>
       <c r="F105">
         <f t="shared" si="4"/>
-        <v>0.10526263340531106</v>
+        <v>4.4962633405311259E-2</v>
       </c>
       <c r="G105">
         <f t="shared" si="5"/>
-        <v>1.1080221991420907E-2</v>
+        <v>2.0216384027404118E-3</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -13981,16 +14230,16 @@
         <v>4.4016667249945591</v>
       </c>
       <c r="E106">
-        <f>+alfa+beta+phi*D105+epsilon</f>
-        <v>4.3066300987616666</v>
+        <f>+alfa+beta*A105+phi*D105</f>
+        <v>4.3681300987616671</v>
       </c>
       <c r="F106">
         <f t="shared" si="4"/>
-        <v>9.5036626232892552E-2</v>
+        <v>3.3536626232891997E-2</v>
       </c>
       <c r="G106">
         <f t="shared" si="5"/>
-        <v>9.031960325730521E-3</v>
+        <v>1.1247052990846996E-3</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -14008,16 +14257,16 @@
         <v>4.4360772261022232</v>
       </c>
       <c r="E107">
-        <f>+alfa+beta+phi*D106+epsilon</f>
-        <v>4.3758152147930103</v>
+        <f>+alfa+beta*A106+phi*D106</f>
+        <v>4.4385152147930107</v>
       </c>
       <c r="F107">
         <f t="shared" si="4"/>
-        <v>6.0262011309212937E-2</v>
+        <v>-2.4379886907874848E-3</v>
       </c>
       <c r="G107">
         <f t="shared" si="5"/>
-        <v>3.6315100070317078E-3</v>
+        <v>5.9437888564076744E-6</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -14035,16 +14284,16 @@
         <v>4.4575705986472203</v>
       </c>
       <c r="E108">
-        <f>+alfa+beta+phi*D107+epsilon</f>
-        <v>4.404207319256944</v>
+        <f>+alfa+beta*A107+phi*D107</f>
+        <v>4.4681073192569443</v>
       </c>
       <c r="F108">
         <f t="shared" si="4"/>
-        <v>5.3363279390276297E-2</v>
+        <v>-1.0536720609723993E-2</v>
       </c>
       <c r="G108">
         <f t="shared" si="5"/>
-        <v>2.8476395872846869E-3</v>
+        <v>1.1102248120738235E-4</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -14062,16 +14311,16 @@
         <v>4.6896259796902084</v>
       </c>
       <c r="E109">
-        <f>+alfa+beta+phi*D108+epsilon</f>
-        <v>4.421941500943821</v>
+        <f>+alfa+beta*A108+phi*D108</f>
+        <v>4.4870415009438211</v>
       </c>
       <c r="F109">
         <f t="shared" si="4"/>
-        <v>0.26768447874638746</v>
+        <v>0.2025844787463873</v>
       </c>
       <c r="G109">
         <f t="shared" si="5"/>
-        <v>7.1654980161725154E-2</v>
+        <v>4.1040471028945445E-2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -14089,16 +14338,16 @@
         <v>4.9211037090390919</v>
       </c>
       <c r="E110">
-        <f>+alfa+beta+phi*D109+epsilon</f>
-        <v>4.6134103958423909</v>
+        <f>+alfa+beta*A109+phi*D109</f>
+        <v>4.6797103958423909</v>
       </c>
       <c r="F110">
         <f t="shared" si="4"/>
-        <v>0.30769331319670101</v>
+        <v>0.24139331319670099</v>
       </c>
       <c r="G110">
         <f t="shared" si="5"/>
-        <v>9.4675174985963145E-2</v>
+        <v>5.8270731656080578E-2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -14116,16 +14365,16 @@
         <v>4.8262071395149198</v>
       </c>
       <c r="E111">
-        <f>+alfa+beta+phi*D110+epsilon</f>
-        <v>4.8044026703281544</v>
+        <f>+alfa+beta*A110+phi*D110</f>
+        <v>4.8719026703281543</v>
       </c>
       <c r="F111">
         <f t="shared" si="4"/>
-        <v>2.1804469186765374E-2</v>
+        <v>-4.5695530813234519E-2</v>
       </c>
       <c r="G111">
         <f t="shared" si="5"/>
-        <v>4.7543487651660062E-4</v>
+        <v>2.0880815363032656E-3</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -14143,16 +14392,16 @@
         <v>4.7183321069455681</v>
       </c>
       <c r="E112">
-        <f>+alfa+beta+phi*D111+epsilon</f>
-        <v>4.7261035108137603</v>
+        <f>+alfa+beta*A111+phi*D111</f>
+        <v>4.7948035108137601</v>
       </c>
       <c r="F112">
         <f t="shared" si="4"/>
-        <v>-7.7714038681921949E-3</v>
+        <v>-7.6471403868191956E-2</v>
       </c>
       <c r="G112">
         <f t="shared" si="5"/>
-        <v>6.0394718082552613E-5</v>
+        <v>5.8478756095721235E-3</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -14170,16 +14419,16 @@
         <v>4.5029745104715904</v>
       </c>
       <c r="E113">
-        <f>+alfa+beta+phi*D112+epsilon</f>
-        <v>4.6370958214407878</v>
+        <f>+alfa+beta*A112+phi*D112</f>
+        <v>4.7069958214407883</v>
       </c>
       <c r="F113">
         <f t="shared" si="4"/>
-        <v>-0.13412131096919744</v>
+        <v>-0.20402131096919796</v>
       </c>
       <c r="G113">
         <f t="shared" si="5"/>
-        <v>1.798852605609616E-2</v>
+        <v>4.1624695329590171E-2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -14197,16 +14446,16 @@
         <v>4.7949402371425212</v>
       </c>
       <c r="E114">
-        <f>+alfa+beta+phi*D113+epsilon</f>
-        <v>4.4594042685901085</v>
+        <f>+alfa+beta*A113+phi*D113</f>
+        <v>4.5305042685901089</v>
       </c>
       <c r="F114">
         <f t="shared" si="4"/>
-        <v>0.33553596855241263</v>
+        <v>0.26443596855241225</v>
       </c>
       <c r="G114">
         <f t="shared" si="5"/>
-        <v>0.11258438619240564</v>
+        <v>6.9926381464252355E-2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -14224,16 +14473,16 @@
         <v>4.871030534357156</v>
       </c>
       <c r="E115">
-        <f>+alfa+beta+phi*D114+epsilon</f>
-        <v>4.7003051896662935</v>
+        <f>+alfa+beta*A114+phi*D114</f>
+        <v>4.7726051896662938</v>
       </c>
       <c r="F115">
         <f t="shared" si="4"/>
-        <v>0.17072534469086253</v>
+        <v>9.8425344690862282E-2</v>
       </c>
       <c r="G115">
         <f t="shared" si="5"/>
-        <v>2.9147143319813825E-2</v>
+        <v>9.6875484775150525E-3</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -14251,16 +14500,16 @@
         <v>4.8610613222907038</v>
       </c>
       <c r="E116">
-        <f>+alfa+beta+phi*D115+epsilon</f>
-        <v>4.7630872938980886</v>
+        <f>+alfa+beta*A115+phi*D115</f>
+        <v>4.8365872938980887</v>
       </c>
       <c r="F116">
         <f t="shared" si="4"/>
-        <v>9.7974028392615153E-2</v>
+        <v>2.4474028392615033E-2</v>
       </c>
       <c r="G116">
         <f t="shared" si="5"/>
-        <v>9.5989102394769595E-3</v>
+        <v>5.9897806576252673E-4</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -14278,16 +14527,16 @@
         <v>4.8599908146657933</v>
       </c>
       <c r="E117">
-        <f>+alfa+beta+phi*D116+epsilon</f>
-        <v>4.7548616970220587</v>
+        <f>+alfa+beta*A116+phi*D116</f>
+        <v>4.8295616970220587</v>
       </c>
       <c r="F117">
         <f t="shared" si="4"/>
-        <v>0.10512911764373456</v>
+        <v>3.0429117643734571E-2</v>
       </c>
       <c r="G117">
         <f t="shared" si="5"/>
-        <v>1.1052131376550181E-2</v>
+        <v>9.2593120057623862E-4</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -14305,16 +14554,16 @@
         <v>5.2511593266252765</v>
       </c>
       <c r="E118">
-        <f>+alfa+beta+phi*D117+epsilon</f>
-        <v>4.7539784211807454</v>
+        <f>+alfa+beta*A117+phi*D117</f>
+        <v>4.8298784211807453</v>
       </c>
       <c r="F118">
         <f t="shared" si="4"/>
-        <v>0.49718090544453108</v>
+        <v>0.42128090544453123</v>
       </c>
       <c r="G118">
         <f t="shared" si="5"/>
-        <v>0.24718885273864377</v>
+        <v>0.17747760129216406</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -14332,16 +14581,16 @@
         <v>5.2776120488626459</v>
       </c>
       <c r="E119">
-        <f>+alfa+beta+phi*D118+epsilon</f>
-        <v>5.0767315603985148</v>
+        <f>+alfa+beta*A118+phi*D118</f>
+        <v>5.1538315603985154</v>
       </c>
       <c r="F119">
         <f t="shared" si="4"/>
-        <v>0.20088048846413109</v>
+        <v>0.12378048846413048</v>
       </c>
       <c r="G119">
         <f t="shared" si="5"/>
-        <v>4.0352970645587904E-2</v>
+        <v>1.5321609324418738E-2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -14359,16 +14608,16 @@
         <v>5.0632496397263882</v>
       </c>
       <c r="E120">
-        <f>+alfa+beta+phi*D119+epsilon</f>
-        <v>5.0985577015165688</v>
+        <f>+alfa+beta*A119+phi*D119</f>
+        <v>5.1768577015165693</v>
       </c>
       <c r="F120">
         <f t="shared" si="4"/>
-        <v>-3.5308061790180645E-2</v>
+        <v>-0.11360806179018113</v>
       </c>
       <c r="G120">
         <f t="shared" si="5"/>
-        <v>1.2466592273792144E-3</v>
+        <v>1.2906791703721613E-2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -14386,16 +14635,16 @@
         <v>5.3164147260413106</v>
       </c>
       <c r="E121">
-        <f>+alfa+beta+phi*D120+epsilon</f>
-        <v>4.9216872777382425</v>
+        <f>+alfa+beta*A120+phi*D120</f>
+        <v>5.0011872777382429</v>
       </c>
       <c r="F121">
         <f t="shared" si="4"/>
-        <v>0.39472744830306805</v>
+        <v>0.3152274483030677</v>
       </c>
       <c r="G121">
         <f t="shared" si="5"/>
-        <v>0.15580975844385125</v>
+        <v>9.9368344163663219E-2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -14413,16 +14662,16 @@
         <v>5.037163392036585</v>
       </c>
       <c r="E122">
-        <f>+alfa+beta+phi*D121+epsilon</f>
-        <v>5.130573790456685</v>
+        <f>+alfa+beta*A121+phi*D121</f>
+        <v>5.2112737904566853</v>
       </c>
       <c r="F122">
         <f t="shared" si="4"/>
-        <v>-9.3410398420100016E-2</v>
+        <v>-0.17411039842010023</v>
       </c>
       <c r="G122">
         <f t="shared" si="5"/>
-        <v>8.7255025330018228E-3</v>
+        <v>3.0314430838006043E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -14440,16 +14689,16 @@
         <v>5.2960107174656441</v>
       </c>
       <c r="E123">
-        <f>+alfa+beta+phi*D122+epsilon</f>
-        <v>4.9001635147693854</v>
+        <f>+alfa+beta*A122+phi*D122</f>
+        <v>4.9820635147693855</v>
       </c>
       <c r="F123">
         <f t="shared" si="4"/>
-        <v>0.39584720269625873</v>
+        <v>0.31394720269625864</v>
       </c>
       <c r="G123">
         <f t="shared" si="5"/>
-        <v>0.15669500788245294</v>
+        <v>9.8562846080805705E-2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -14467,16 +14716,16 @@
         <v>5.2468792336428738</v>
       </c>
       <c r="E124">
-        <f>+alfa+beta+phi*D123+epsilon</f>
-        <v>5.1137384429809023</v>
+        <f>+alfa+beta*A123+phi*D123</f>
+        <v>5.1968384429809023</v>
       </c>
       <c r="F124">
         <f t="shared" si="4"/>
-        <v>0.13314079066197149</v>
+        <v>5.0040790661971535E-2</v>
       </c>
       <c r="G124">
         <f t="shared" si="5"/>
-        <v>1.7726470138094915E-2</v>
+        <v>2.5040807300752577E-3</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -14494,16 +14743,16 @@
         <v>5.2738470164017492</v>
       </c>
       <c r="E125">
-        <f>+alfa+beta+phi*D124+epsilon</f>
-        <v>5.0732000556787344</v>
+        <f>+alfa+beta*A124+phi*D124</f>
+        <v>5.1575000556787343</v>
       </c>
       <c r="F125">
         <f t="shared" si="4"/>
-        <v>0.2006469607230148</v>
+        <v>0.11634696072301498</v>
       </c>
       <c r="G125">
         <f t="shared" si="5"/>
-        <v>4.0259202847383047E-2</v>
+        <v>1.353661526948279E-2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -14521,16 +14770,16 @@
         <v>5.0007982986563597</v>
       </c>
       <c r="E126">
-        <f>+alfa+beta+phi*D125+epsilon</f>
-        <v>5.0954511732330827</v>
+        <f>+alfa+beta*A125+phi*D125</f>
+        <v>5.1809511732330833</v>
       </c>
       <c r="F126">
         <f t="shared" si="4"/>
-        <v>-9.4652874576723001E-2</v>
+        <v>-0.18015287457672358</v>
       </c>
       <c r="G126">
         <f t="shared" si="5"/>
-        <v>8.9591666656368557E-3</v>
+        <v>3.2455058218256692E-2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -14548,16 +14797,16 @@
         <v>4.5106480822369095</v>
       </c>
       <c r="E127">
-        <f>+alfa+beta+phi*D126+epsilon</f>
-        <v>4.8701586762213616</v>
+        <f>+alfa+beta*A126+phi*D126</f>
+        <v>4.956858676221362</v>
       </c>
       <c r="F127">
         <f t="shared" si="4"/>
-        <v>-0.35951059398445206</v>
+        <v>-0.44621059398445251</v>
       </c>
       <c r="G127">
         <f t="shared" si="5"/>
-        <v>0.12924786718705353</v>
+        <v>0.19910389418395794</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -14575,16 +14824,16 @@
         <v>4.4163154639591005</v>
       </c>
       <c r="E128">
-        <f>+alfa+beta+phi*D127+epsilon</f>
-        <v>4.4657357326536742</v>
+        <f>+alfa+beta*A127+phi*D127</f>
+        <v>4.5536357326536736</v>
       </c>
       <c r="F128">
         <f t="shared" si="4"/>
-        <v>-4.9420268694573721E-2</v>
+        <v>-0.13732026869457314</v>
       </c>
       <c r="G128">
         <f t="shared" si="5"/>
-        <v>2.4423629578438633E-3</v>
+        <v>1.8856856194349764E-2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -14602,16 +14851,16 @@
         <v>4.4201062056639531</v>
       </c>
       <c r="E129">
-        <f>+alfa+beta+phi*D128+epsilon</f>
-        <v>4.3879018893126531</v>
+        <f>+alfa+beta*A128+phi*D128</f>
+        <v>4.4770018893126533</v>
       </c>
       <c r="F129">
         <f t="shared" si="4"/>
-        <v>3.2204316351299944E-2</v>
+        <v>-5.6895683648700235E-2</v>
       </c>
       <c r="G129">
         <f t="shared" si="5"/>
-        <v>1.0371179916546049E-3</v>
+        <v>3.2371188178529752E-3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -14629,16 +14878,16 @@
         <v>4.7557257957035155</v>
       </c>
       <c r="E130">
-        <f>+alfa+beta+phi*D129+epsilon</f>
-        <v>4.3910296302933274</v>
+        <f>+alfa+beta*A129+phi*D129</f>
+        <v>4.4813296302933274</v>
       </c>
       <c r="F130">
         <f t="shared" si="4"/>
-        <v>0.36469616541018812</v>
+        <v>0.27439616541018808</v>
       </c>
       <c r="G130">
         <f t="shared" si="5"/>
-        <v>0.13300329306489531</v>
+        <v>7.5293255591815295E-2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -14656,16 +14905,16 @@
         <v>4.943564689517121</v>
       </c>
       <c r="E131">
-        <f>+alfa+beta+phi*D130+epsilon</f>
-        <v>4.6679493540349704</v>
+        <f>+alfa+beta*A130+phi*D130</f>
+        <v>4.7594493540349703</v>
       </c>
       <c r="F131">
         <f t="shared" si="4"/>
-        <v>0.27561533548215067</v>
+        <v>0.18411533548215075</v>
       </c>
       <c r="G131">
         <f t="shared" si="5"/>
-        <v>7.5963813152938459E-2</v>
+        <v>3.3898456759704917E-2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -14683,16 +14932,16 @@
         <v>4.6139151934610636</v>
       </c>
       <c r="E132">
-        <f>+alfa+beta+phi*D131+epsilon</f>
-        <v>4.8229352253205757</v>
+        <f>+alfa+beta*A131+phi*D131</f>
+        <v>4.9156352253205764</v>
       </c>
       <c r="F132">
         <f t="shared" ref="F132:F195" si="7">+D132-E132</f>
-        <v>-0.20902003185951212</v>
+        <v>-0.30172003185951279</v>
       </c>
       <c r="G132">
         <f t="shared" ref="G132:G195" si="8">+F132*F132</f>
-        <v>4.3689373718551465E-2</v>
+        <v>9.1034977625305422E-2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -14710,16 +14959,16 @@
         <v>4.2788144403004713</v>
       </c>
       <c r="E133">
-        <f>+alfa+beta+phi*D132+epsilon</f>
-        <v>4.550941426124723</v>
+        <f>+alfa+beta*A132+phi*D132</f>
+        <v>4.6448414261247235</v>
       </c>
       <c r="F133">
         <f t="shared" si="7"/>
-        <v>-0.27212698582425165</v>
+        <v>-0.36602698582425219</v>
       </c>
       <c r="G133">
         <f t="shared" si="8"/>
-        <v>7.4053096413792457E-2</v>
+        <v>0.13397575435158732</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -14737,16 +14986,16 @@
         <v>4.5366217228380874</v>
       </c>
       <c r="E134">
-        <f>+alfa+beta+phi*D133+epsilon</f>
-        <v>4.2744497946919182</v>
+        <f>+alfa+beta*A133+phi*D133</f>
+        <v>4.3695497946919186</v>
       </c>
       <c r="F134">
         <f t="shared" si="7"/>
-        <v>0.26217192814616919</v>
+        <v>0.16707192814616878</v>
       </c>
       <c r="G134">
         <f t="shared" si="8"/>
-        <v>6.8734119907880101E-2</v>
+        <v>2.7913029174478583E-2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -14764,16 +15013,16 @@
         <v>4.670794636801495</v>
       </c>
       <c r="E135">
-        <f>+alfa+beta+phi*D134+epsilon</f>
-        <v>4.487166583513706</v>
+        <f>+alfa+beta*A134+phi*D134</f>
+        <v>4.5834665835137054</v>
       </c>
       <c r="F135">
         <f t="shared" si="7"/>
-        <v>0.18362805328778897</v>
+        <v>8.7328053287789587E-2</v>
       </c>
       <c r="G135">
         <f t="shared" si="8"/>
-        <v>3.3719261954263065E-2</v>
+        <v>7.6261888910350174E-3</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -14791,16 +15040,16 @@
         <v>4.4117035941005218</v>
       </c>
       <c r="E136">
-        <f>+alfa+beta+phi*D135+epsilon</f>
-        <v>4.5978726548249131</v>
+        <f>+alfa+beta*A135+phi*D135</f>
+        <v>4.6953726548249133</v>
       </c>
       <c r="F136">
         <f t="shared" si="7"/>
-        <v>-0.18616906072439132</v>
+        <v>-0.28366906072439146</v>
       </c>
       <c r="G136">
         <f t="shared" si="8"/>
-        <v>3.4658919171002105E-2</v>
+        <v>8.0468136012258495E-2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -14818,16 +15067,16 @@
         <v>4.3758812196649473</v>
       </c>
       <c r="E137">
-        <f>+alfa+beta+phi*D136+epsilon</f>
-        <v>4.3840966354923401</v>
+        <f>+alfa+beta*A136+phi*D136</f>
+        <v>4.4827966354923401</v>
       </c>
       <c r="F137">
         <f t="shared" si="7"/>
-        <v>-8.2154158273928246E-3</v>
+        <v>-0.10691541582739283</v>
       </c>
       <c r="G137">
         <f t="shared" si="8"/>
-        <v>6.7493057216976531E-5</v>
+        <v>1.1430906141544322E-2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -14845,16 +15094,16 @@
         <v>4.1971311486482188</v>
       </c>
       <c r="E138">
-        <f>+alfa+beta+phi*D137+epsilon</f>
-        <v>4.3545395943455478</v>
+        <f>+alfa+beta*A137+phi*D137</f>
+        <v>4.4544395943455477</v>
       </c>
       <c r="F138">
         <f t="shared" si="7"/>
-        <v>-0.15740844569732904</v>
+        <v>-0.25730844569732891</v>
       </c>
       <c r="G138">
         <f t="shared" si="8"/>
-        <v>2.4777418776848983E-2</v>
+        <v>6.6207636227175265E-2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -14872,16 +15121,16 @@
         <v>4.1845434841899722</v>
       </c>
       <c r="E139">
-        <f>+alfa+beta+phi*D138+epsilon</f>
-        <v>4.2070529107496455</v>
+        <f>+alfa+beta*A138+phi*D138</f>
+        <v>4.3081529107496452</v>
       </c>
       <c r="F139">
         <f t="shared" si="7"/>
-        <v>-2.2509426559673251E-2</v>
+        <v>-0.123609426559673</v>
       </c>
       <c r="G139">
         <f t="shared" si="8"/>
-        <v>5.0667428404532354E-4</v>
+        <v>1.5279290334411192E-2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -14899,16 +15148,16 @@
         <v>4.0835286474393824</v>
       </c>
       <c r="E140">
-        <f>+alfa+beta+phi*D139+epsilon</f>
-        <v>4.1966668288051459</v>
+        <f>+alfa+beta*A139+phi*D139</f>
+        <v>4.2989668288051464</v>
       </c>
       <c r="F140">
         <f t="shared" si="7"/>
-        <v>-0.11313818136576348</v>
+        <v>-0.21543818136576398</v>
       </c>
       <c r="G140">
         <f t="shared" si="8"/>
-        <v>1.280024808275239E-2</v>
+        <v>4.6413609990187815E-2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -14926,16 +15175,16 @@
         <v>4.5205150738320672</v>
       </c>
       <c r="E141">
-        <f>+alfa+beta+phi*D140+epsilon</f>
-        <v>4.1133194870022338</v>
+        <f>+alfa+beta*A140+phi*D140</f>
+        <v>4.2168194870022342</v>
       </c>
       <c r="F141">
         <f t="shared" si="7"/>
-        <v>0.40719558682983337</v>
+        <v>0.303695586829833</v>
       </c>
       <c r="G141">
         <f t="shared" si="8"/>
-        <v>0.16580824593369237</v>
+        <v>9.2231009459916635E-2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -14953,16 +15202,16 @@
         <v>4.5477614577632872</v>
       </c>
       <c r="E142">
-        <f>+alfa+beta+phi*D141+epsilon</f>
-        <v>4.473876987418838</v>
+        <f>+alfa+beta*A141+phi*D141</f>
+        <v>4.5785769874188382</v>
       </c>
       <c r="F142">
         <f t="shared" si="7"/>
-        <v>7.3884470344449227E-2</v>
+        <v>-3.0815529655551011E-2</v>
       </c>
       <c r="G142">
         <f t="shared" si="8"/>
-        <v>5.4589149580797974E-3</v>
+        <v>9.4959686795214378E-4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -14980,16 +15229,16 @@
         <v>4.324650383817815</v>
       </c>
       <c r="E143">
-        <f>+alfa+beta+phi*D142+epsilon</f>
-        <v>4.4963579788004884</v>
+        <f>+alfa+beta*A142+phi*D142</f>
+        <v>4.6022579788004885</v>
       </c>
       <c r="F143">
         <f t="shared" si="7"/>
-        <v>-0.17170759498267341</v>
+        <v>-0.27760759498267351</v>
       </c>
       <c r="G143">
         <f t="shared" si="8"/>
-        <v>2.9483498174733811E-2</v>
+        <v>7.7065976792064089E-2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -15007,16 +15256,16 @@
         <v>4.2974078930892619</v>
       </c>
       <c r="E144">
-        <f>+alfa+beta+phi*D143+epsilon</f>
-        <v>4.3122690316880785</v>
+        <f>+alfa+beta*A143+phi*D143</f>
+        <v>4.4193690316880785</v>
       </c>
       <c r="F144">
         <f t="shared" si="7"/>
-        <v>-1.4861138598816659E-2</v>
+        <v>-0.12196113859881663</v>
       </c>
       <c r="G144">
         <f t="shared" si="8"/>
-        <v>2.2085344045323836E-4</v>
+        <v>1.487451932831976E-2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -15034,16 +15283,16 @@
         <v>4.0697825723025618</v>
       </c>
       <c r="E145">
-        <f>+alfa+beta+phi*D144+epsilon</f>
-        <v>4.2897912525879498</v>
+        <f>+alfa+beta*A144+phi*D144</f>
+        <v>4.3980912525879496</v>
       </c>
       <c r="F145">
         <f t="shared" si="7"/>
-        <v>-0.220008680285388</v>
+        <v>-0.32830868028538784</v>
       </c>
       <c r="G145">
         <f t="shared" si="8"/>
-        <v>4.8403819400918077E-2</v>
+        <v>0.10778658955073302</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -15061,16 +15310,16 @@
         <v>4.0259031759978026</v>
       </c>
       <c r="E146">
-        <f>+alfa+beta+phi*D145+epsilon</f>
-        <v>4.1019776004068431</v>
+        <f>+alfa+beta*A145+phi*D145</f>
+        <v>4.2114776004068428</v>
       </c>
       <c r="F146">
         <f t="shared" si="7"/>
-        <v>-7.6074424409040553E-2</v>
+        <v>-0.18557442440904026</v>
       </c>
       <c r="G146">
         <f t="shared" si="8"/>
-        <v>5.7873180491668248E-3</v>
+        <v>3.4437866994746595E-2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -15088,16 +15337,16 @@
         <v>4.3793262720291413</v>
       </c>
       <c r="E147">
-        <f>+alfa+beta+phi*D146+epsilon</f>
-        <v>4.0657727105157866</v>
+        <f>+alfa+beta*A146+phi*D146</f>
+        <v>4.1764727105157871</v>
       </c>
       <c r="F147">
         <f t="shared" si="7"/>
-        <v>0.31355356151335467</v>
+        <v>0.20285356151335421</v>
       </c>
       <c r="G147">
         <f t="shared" si="8"/>
-        <v>9.8315835937709095E-2</v>
+        <v>4.114956741865218E-2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -15115,16 +15364,16 @@
         <v>4.7874382868567205</v>
       </c>
       <c r="E148">
-        <f>+alfa+beta+phi*D147+epsilon</f>
-        <v>4.3573821070512446</v>
+        <f>+alfa+beta*A147+phi*D147</f>
+        <v>4.4692821070512441</v>
       </c>
       <c r="F148">
         <f t="shared" si="7"/>
-        <v>0.43005617980547584</v>
+        <v>0.31815617980547639</v>
       </c>
       <c r="G148">
         <f t="shared" si="8"/>
-        <v>0.18494831778887977</v>
+        <v>0.10122335474841462</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -15142,16 +15391,16 @@
         <v>4.1173688721188801</v>
       </c>
       <c r="E149">
-        <f>+alfa+beta+phi*D148+epsilon</f>
-        <v>4.6941153304854799</v>
+        <f>+alfa+beta*A148+phi*D148</f>
+        <v>4.8072153304854801</v>
       </c>
       <c r="F149">
         <f t="shared" si="7"/>
-        <v>-0.57674645836659977</v>
+        <v>-0.68984645836659997</v>
       </c>
       <c r="G149">
         <f t="shared" si="8"/>
-        <v>0.332636477238416</v>
+        <v>0.47588813612094116</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -15169,16 +15418,16 @@
         <v>3.8636345233302656</v>
       </c>
       <c r="E150">
-        <f>+alfa+beta+phi*D149+epsilon</f>
-        <v>4.1412410563852875</v>
+        <f>+alfa+beta*A149+phi*D149</f>
+        <v>4.2555410563852876</v>
       </c>
       <c r="F150">
         <f t="shared" si="7"/>
-        <v>-0.27760653305502192</v>
+        <v>-0.39190653305502199</v>
       </c>
       <c r="G150">
         <f t="shared" si="8"/>
-        <v>7.7065387194828971E-2</v>
+        <v>0.15359073065120704</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -15196,16 +15445,16 @@
         <v>4.526622940414601</v>
       </c>
       <c r="E151">
-        <f>+alfa+beta+phi*D150+epsilon</f>
-        <v>3.9318848451998019</v>
+        <f>+alfa+beta*A150+phi*D150</f>
+        <v>4.0473848451998018</v>
       </c>
       <c r="F151">
         <f t="shared" si="7"/>
-        <v>0.59473809521479915</v>
+        <v>0.47923809521479921</v>
       </c>
       <c r="G151">
         <f t="shared" si="8"/>
-        <v>0.3537134018997275</v>
+        <v>0.22966915190510895</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -15223,16 +15472,16 @@
         <v>4.4417092682631516</v>
       </c>
       <c r="E152">
-        <f>+alfa+beta+phi*D151+epsilon</f>
-        <v>4.4789165881360873</v>
+        <f>+alfa+beta*A151+phi*D151</f>
+        <v>4.5956165881360871</v>
       </c>
       <c r="F152">
         <f t="shared" si="7"/>
-        <v>-3.7207319872935685E-2</v>
+        <v>-0.15390731987293549</v>
       </c>
       <c r="G152">
         <f t="shared" si="8"/>
-        <v>1.3843846521269547E-3</v>
+        <v>2.3687463110470083E-2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -15250,16 +15499,16 @@
         <v>4.9895690208236614</v>
       </c>
       <c r="E153">
-        <f>+alfa+beta+phi*D152+epsilon</f>
-        <v>4.4088543172439261</v>
+        <f>+alfa+beta*A152+phi*D152</f>
+        <v>4.5267543172439257</v>
       </c>
       <c r="F153">
         <f t="shared" si="7"/>
-        <v>0.58071470357973531</v>
+        <v>0.46281470357973564</v>
       </c>
       <c r="G153">
         <f t="shared" si="8"/>
-        <v>0.33722956695369988</v>
+        <v>0.21419744984959857</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -15277,16 +15526,16 @@
         <v>5.2519104614841527</v>
       </c>
       <c r="E154">
-        <f>+alfa+beta+phi*D153+epsilon</f>
-        <v>4.8608933990816023</v>
+        <f>+alfa+beta*A153+phi*D153</f>
+        <v>4.9799933990816028</v>
       </c>
       <c r="F154">
         <f t="shared" si="7"/>
-        <v>0.39101706240255041</v>
+        <v>0.27191706240254998</v>
       </c>
       <c r="G154">
         <f t="shared" si="8"/>
-        <v>0.15289434308992</v>
+        <v>7.3938888825632265E-2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -15304,16 +15553,16 @@
         <v>5.3230804845993376</v>
       </c>
       <c r="E155">
-        <f>+alfa+beta+phi*D154+epsilon</f>
-        <v>5.0773513217705739</v>
+        <f>+alfa+beta*A154+phi*D154</f>
+        <v>5.1976513217705742</v>
       </c>
       <c r="F155">
         <f t="shared" si="7"/>
-        <v>0.24572916282876367</v>
+        <v>0.12542916282876337</v>
       </c>
       <c r="G155">
         <f t="shared" si="8"/>
-        <v>6.0382821464525047E-2</v>
+        <v>1.5732474887924435E-2</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -15331,16 +15580,16 @@
         <v>5.1599564878148261</v>
       </c>
       <c r="E156">
-        <f>+alfa+beta+phi*D155+epsilon</f>
-        <v>5.1360737078429128</v>
+        <f>+alfa+beta*A155+phi*D155</f>
+        <v>5.257573707842913</v>
       </c>
       <c r="F156">
         <f t="shared" si="7"/>
-        <v>2.3882779971913237E-2</v>
+        <v>-9.7617220028086926E-2</v>
       </c>
       <c r="G156">
         <f t="shared" si="8"/>
-        <v>5.7038717918682E-4</v>
+        <v>9.5291216460119347E-3</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -15358,16 +15607,16 @@
         <v>5.2355422897454282</v>
       </c>
       <c r="E157">
-        <f>+alfa+beta+phi*D156+epsilon</f>
-        <v>5.0014800980960121</v>
+        <f>+alfa+beta*A156+phi*D156</f>
+        <v>5.1241800980960122</v>
       </c>
       <c r="F157">
         <f t="shared" si="7"/>
-        <v>0.23406219164941611</v>
+        <v>0.11136219164941608</v>
       </c>
       <c r="G157">
         <f t="shared" si="8"/>
-        <v>5.4785109559727999E-2</v>
+        <v>1.2401537728961276E-2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -15385,16 +15634,16 @@
         <v>5.2407885806718673</v>
       </c>
       <c r="E158">
-        <f>+alfa+beta+phi*D157+epsilon</f>
-        <v>5.0638459432689524</v>
+        <f>+alfa+beta*A157+phi*D157</f>
+        <v>5.1877459432689523</v>
       </c>
       <c r="F158">
         <f t="shared" si="7"/>
-        <v>0.17694263740291483</v>
+        <v>5.3042637402914927E-2</v>
       </c>
       <c r="G158">
         <f t="shared" si="8"/>
-        <v>3.1308696931099396E-2</v>
+        <v>2.8135213826571098E-3</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -15412,16 +15661,16 @@
         <v>5.2327405300280851</v>
       </c>
       <c r="E159">
-        <f>+alfa+beta+phi*D158+epsilon</f>
-        <v>5.0681746579123574</v>
+        <f>+alfa+beta*A158+phi*D158</f>
+        <v>5.1932746579123581</v>
       </c>
       <c r="F159">
         <f t="shared" si="7"/>
-        <v>0.16456587211572771</v>
+        <v>3.9465872115727052E-2</v>
       </c>
       <c r="G159">
         <f t="shared" si="8"/>
-        <v>2.7081926265210048E-2</v>
+        <v>1.557555061854922E-3</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -15439,16 +15688,16 @@
         <v>4.9773936160909713</v>
       </c>
       <c r="E160">
-        <f>+alfa+beta+phi*D159+epsilon</f>
-        <v>5.0615342113261725</v>
+        <f>+alfa+beta*A159+phi*D159</f>
+        <v>5.1878342113261731</v>
       </c>
       <c r="F160">
         <f t="shared" si="7"/>
-        <v>-8.4140595235201232E-2</v>
+        <v>-0.21044059523520176</v>
       </c>
       <c r="G160">
         <f t="shared" si="8"/>
-        <v>7.0796397665339687E-3</v>
+        <v>4.4285244122946023E-2</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -15466,16 +15715,16 @@
         <v>5.4877614916261788</v>
       </c>
       <c r="E161">
-        <f>+alfa+beta+phi*D160+epsilon</f>
-        <v>4.8508474726366595</v>
+        <f>+alfa+beta*A160+phi*D160</f>
+        <v>4.9783474726366599</v>
       </c>
       <c r="F161">
         <f t="shared" si="7"/>
-        <v>0.63691401898951927</v>
+        <v>0.50941401898951888</v>
       </c>
       <c r="G161">
         <f t="shared" si="8"/>
-        <v>0.40565946758538174</v>
+        <v>0.2595026427430539</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -15493,16 +15742,16 @@
         <v>5.0036739296428445</v>
       </c>
       <c r="E162">
-        <f>+alfa+beta+phi*D161+epsilon</f>
-        <v>5.2719520067407597</v>
+        <f>+alfa+beta*A161+phi*D161</f>
+        <v>5.40065200674076</v>
       </c>
       <c r="F162">
         <f t="shared" si="7"/>
-        <v>-0.26827807709791518</v>
+        <v>-0.39697807709791544</v>
       </c>
       <c r="G162">
         <f t="shared" si="8"/>
-        <v>7.1973126651354927E-2</v>
+        <v>0.1575915936963585</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -15520,16 +15769,16 @@
         <v>5.0167135133293188</v>
       </c>
       <c r="E163">
-        <f>+alfa+beta+phi*D162+epsilon</f>
-        <v>4.8725313593483106</v>
+        <f>+alfa+beta*A162+phi*D162</f>
+        <v>5.0024313593483107</v>
       </c>
       <c r="F163">
         <f t="shared" si="7"/>
-        <v>0.1441821539810082</v>
+        <v>1.4282153981008072E-2</v>
       </c>
       <c r="G163">
         <f t="shared" si="8"/>
-        <v>2.0788493526603159E-2</v>
+        <v>2.0397992233722474E-4</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -15547,16 +15796,16 @@
         <v>5.4928515247087581</v>
       </c>
       <c r="E164">
-        <f>+alfa+beta+phi*D163+epsilon</f>
-        <v>4.8832903198480206</v>
+        <f>+alfa+beta*A163+phi*D163</f>
+        <v>5.0143903198480206</v>
       </c>
       <c r="F164">
         <f t="shared" si="7"/>
-        <v>0.6095612048607375</v>
+        <v>0.47846120486073751</v>
       </c>
       <c r="G164">
         <f t="shared" si="8"/>
-        <v>0.37156486247127402</v>
+        <v>0.22892512455678862</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -15574,16 +15823,16 @@
         <v>5.0696771475236471</v>
       </c>
       <c r="E165">
-        <f>+alfa+beta+phi*D164+epsilon</f>
-        <v>5.2761517930371955</v>
+        <f>+alfa+beta*A164+phi*D164</f>
+        <v>5.4084517930371954</v>
       </c>
       <c r="F165">
         <f t="shared" si="7"/>
-        <v>-0.20647464551354844</v>
+        <v>-0.3387746455135483</v>
       </c>
       <c r="G165">
         <f t="shared" si="8"/>
-        <v>4.2631779239945489E-2</v>
+        <v>0.11476826044283031</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -15601,16 +15850,16 @@
         <v>5.0166272173026787</v>
       </c>
       <c r="E166">
-        <f>+alfa+beta+phi*D165+epsilon</f>
-        <v>4.9269906144217606</v>
+        <f>+alfa+beta*A165+phi*D165</f>
+        <v>5.0604906144217612</v>
       </c>
       <c r="F166">
         <f t="shared" si="7"/>
-        <v>8.9636602880918126E-2</v>
+        <v>-4.3863397119082492E-2</v>
       </c>
       <c r="G166">
         <f t="shared" si="8"/>
-        <v>8.0347205760314191E-3</v>
+        <v>1.9239976068263342E-3</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -15628,16 +15877,16 @@
         <v>5.4108585605575374</v>
       </c>
       <c r="E167">
-        <f>+alfa+beta+phi*D166+epsilon</f>
-        <v>4.8832191169964396</v>
+        <f>+alfa+beta*A166+phi*D166</f>
+        <v>5.0179191169964401</v>
       </c>
       <c r="F167">
         <f t="shared" si="7"/>
-        <v>0.52763944356109782</v>
+        <v>0.39293944356109733</v>
       </c>
       <c r="G167">
         <f t="shared" si="8"/>
-        <v>0.27840338240146495</v>
+        <v>0.1544014063061048</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -15655,16 +15904,16 @@
         <v>5.4200307243326185</v>
       </c>
       <c r="E168">
-        <f>+alfa+beta+phi*D167+epsilon</f>
-        <v>5.2084993983160235</v>
+        <f>+alfa+beta*A167+phi*D167</f>
+        <v>5.3443993983160238</v>
       </c>
       <c r="F168">
         <f t="shared" si="7"/>
-        <v>0.21153132601659497</v>
+        <v>7.5631326016594613E-2</v>
       </c>
       <c r="G168">
         <f t="shared" si="8"/>
-        <v>4.4745501886338988E-2</v>
+        <v>5.7200974750284215E-3</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -15682,16 +15931,16 @@
         <v>5.1248579702796633</v>
       </c>
       <c r="E169">
-        <f>+alfa+beta+phi*D168+epsilon</f>
-        <v>5.2160673506468429</v>
+        <f>+alfa+beta*A168+phi*D168</f>
+        <v>5.3531673506468431</v>
       </c>
       <c r="F169">
         <f t="shared" si="7"/>
-        <v>-9.1209380367179627E-2</v>
+        <v>-0.22830938036717985</v>
       </c>
       <c r="G169">
         <f t="shared" si="8"/>
-        <v>8.3191510669648524E-3</v>
+        <v>5.2125173163645608E-2</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -15709,16 +15958,16 @@
         <v>5.1030866257475731</v>
       </c>
       <c r="E170">
-        <f>+alfa+beta+phi*D169+epsilon</f>
-        <v>4.9725203112777496</v>
+        <f>+alfa+beta*A169+phi*D169</f>
+        <v>5.1108203112777497</v>
       </c>
       <c r="F170">
         <f t="shared" si="7"/>
-        <v>0.13056631446982347</v>
+        <v>-7.733685530176615E-3</v>
       </c>
       <c r="G170">
         <f t="shared" si="8"/>
-        <v>1.7047562474232836E-2</v>
+        <v>5.980989187966315E-5</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -15736,16 +15985,16 @@
         <v>5.262907283684787</v>
       </c>
       <c r="E171">
-        <f>+alfa+beta+phi*D170+epsilon</f>
-        <v>4.9545567749043222</v>
+        <f>+alfa+beta*A170+phi*D170</f>
+        <v>5.0940567749043222</v>
       </c>
       <c r="F171">
         <f t="shared" si="7"/>
-        <v>0.30835050878046477</v>
+        <v>0.16885050878046481</v>
       </c>
       <c r="G171">
         <f t="shared" si="8"/>
-        <v>9.5080036265171489E-2</v>
+        <v>2.8510494315421825E-2</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -15763,16 +16012,16 @@
         <v>5.0481276125444685</v>
       </c>
       <c r="E172">
-        <f>+alfa+beta+phi*D171+epsilon</f>
-        <v>5.0864247997683174</v>
+        <f>+alfa+beta*A171+phi*D171</f>
+        <v>5.2271247997683172</v>
       </c>
       <c r="F172">
         <f t="shared" si="7"/>
-        <v>-3.8297187223848894E-2</v>
+        <v>-0.17899718722384872</v>
       </c>
       <c r="G172">
         <f t="shared" si="8"/>
-        <v>1.466674549258535E-3</v>
+        <v>3.2039993034049551E-2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -15790,16 +16039,16 @@
         <v>5.942632813542736</v>
       </c>
       <c r="E173">
-        <f>+alfa+beta+phi*D172+epsilon</f>
-        <v>4.9092100931104401</v>
+        <f>+alfa+beta*A172+phi*D172</f>
+        <v>5.0511100931104398</v>
       </c>
       <c r="F173">
         <f t="shared" si="7"/>
-        <v>1.0334227204322959</v>
+        <v>0.89152272043229619</v>
       </c>
       <c r="G173">
         <f t="shared" si="8"/>
-        <v>1.0679625191056872</v>
+        <v>0.79481276104700216</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -15817,16 +16066,16 @@
         <v>5.9970683745807429</v>
       </c>
       <c r="E174">
-        <f>+alfa+beta+phi*D173+epsilon</f>
-        <v>5.6472663344541107</v>
+        <f>+alfa+beta*A173+phi*D173</f>
+        <v>5.7903663344541112</v>
       </c>
       <c r="F174">
         <f t="shared" si="7"/>
-        <v>0.34980204012663219</v>
+        <v>0.20670204012663174</v>
       </c>
       <c r="G174">
         <f t="shared" si="8"/>
-        <v>0.122361467276754</v>
+        <v>4.2725733392511678E-2</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -15844,16 +16093,16 @@
         <v>5.9151871028435332</v>
       </c>
       <c r="E175">
-        <f>+alfa+beta+phi*D174+epsilon</f>
-        <v>5.6921811158665703</v>
+        <f>+alfa+beta*A174+phi*D174</f>
+        <v>5.8364811158665706</v>
       </c>
       <c r="F175">
         <f t="shared" si="7"/>
-        <v>0.22300598697696294</v>
+        <v>7.8705986976962627E-2</v>
       </c>
       <c r="G175">
         <f t="shared" si="8"/>
-        <v>4.9731670227569365E-2</v>
+        <v>6.1946323860178109E-3</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -15871,16 +16120,16 @@
         <v>5.3217959719339651</v>
       </c>
       <c r="E176">
-        <f>+alfa+beta+phi*D175+epsilon</f>
-        <v>5.6246208785561986</v>
+        <f>+alfa+beta*A175+phi*D175</f>
+        <v>5.7701208785561988</v>
       </c>
       <c r="F176">
         <f t="shared" si="7"/>
-        <v>-0.30282490662223349</v>
+        <v>-0.44832490662223368</v>
       </c>
       <c r="G176">
         <f t="shared" si="8"/>
-        <v>9.1702924070764427E-2</v>
+        <v>0.20099522189783456</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -15898,16 +16147,16 @@
         <v>5.3750618611865484</v>
       </c>
       <c r="E177">
-        <f>+alfa+beta+phi*D176+epsilon</f>
-        <v>5.1350138564427139</v>
+        <f>+alfa+beta*A176+phi*D176</f>
+        <v>5.281713856442714</v>
       </c>
       <c r="F177">
         <f t="shared" si="7"/>
-        <v>0.24004800474383448</v>
+        <v>9.3348004743834423E-2</v>
       </c>
       <c r="G177">
         <f t="shared" si="8"/>
-        <v>5.7623044581495982E-2</v>
+        <v>8.7138499896549336E-3</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -15925,16 +16174,16 @@
         <v>5.2230198568976425</v>
       </c>
       <c r="E178">
-        <f>+alfa+beta+phi*D177+epsilon</f>
-        <v>5.1789635416650208</v>
+        <f>+alfa+beta*A177+phi*D177</f>
+        <v>5.3268635416650207</v>
       </c>
       <c r="F178">
         <f t="shared" si="7"/>
-        <v>4.4056315232621657E-2</v>
+        <v>-0.10384368476737826</v>
       </c>
       <c r="G178">
         <f t="shared" si="8"/>
-        <v>1.940958911876131E-3</v>
+        <v>1.0783510866066628E-2</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -15952,16 +16201,16 @@
         <v>5.4028252927447644</v>
       </c>
       <c r="E179">
-        <f>+alfa+beta+phi*D178+epsilon</f>
-        <v>5.0535136839262442</v>
+        <f>+alfa+beta*A178+phi*D178</f>
+        <v>5.2026136839262449</v>
       </c>
       <c r="F179">
         <f t="shared" si="7"/>
-        <v>0.34931160881852019</v>
+        <v>0.20021160881851952</v>
       </c>
       <c r="G179">
         <f t="shared" si="8"/>
-        <v>0.12201860005538287</v>
+        <v>4.0084688305699882E-2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -15979,16 +16228,16 @@
         <v>5.153142405037122</v>
       </c>
       <c r="E180">
-        <f>+alfa+beta+phi*D179+epsilon</f>
-        <v>5.2018711490437042</v>
+        <f>+alfa+beta*A179+phi*D179</f>
+        <v>5.3521711490437047</v>
       </c>
       <c r="F180">
         <f t="shared" si="7"/>
-        <v>-4.8728744006582225E-2</v>
+        <v>-0.19902874400658277</v>
       </c>
       <c r="G180">
         <f t="shared" si="8"/>
-        <v>2.3744904924590231E-3</v>
+        <v>3.9612440940837858E-2</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -16006,16 +16255,16 @@
         <v>5.1987621485955851</v>
       </c>
       <c r="E181">
-        <f>+alfa+beta+phi*D180+epsilon</f>
-        <v>4.9958577983961288</v>
+        <f>+alfa+beta*A180+phi*D180</f>
+        <v>5.1473577983961292</v>
       </c>
       <c r="F181">
         <f t="shared" si="7"/>
-        <v>0.2029043501994563</v>
+        <v>5.1404350199455884E-2</v>
       </c>
       <c r="G181">
         <f t="shared" si="8"/>
-        <v>4.1170175329863598E-2</v>
+        <v>2.6424072194283E-3</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -16033,16 +16282,16 @@
         <v>5.2822253482002175</v>
       </c>
       <c r="E182">
-        <f>+alfa+beta+phi*D181+epsilon</f>
-        <v>5.0334986488062166</v>
+        <f>+alfa+beta*A181+phi*D181</f>
+        <v>5.1861986488062168</v>
       </c>
       <c r="F182">
         <f t="shared" si="7"/>
-        <v>0.24872669939400094</v>
+        <v>9.6026699394000659E-2</v>
       </c>
       <c r="G182">
         <f t="shared" si="8"/>
-        <v>6.1864970991433704E-2</v>
+        <v>9.2211269965057664E-3</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -16060,16 +16309,16 @@
         <v>5.1595333189574193</v>
       </c>
       <c r="E183">
-        <f>+alfa+beta+phi*D182+epsilon</f>
-        <v>5.1023641347999993</v>
+        <f>+alfa+beta*A182+phi*D182</f>
+        <v>5.2562641347999994</v>
       </c>
       <c r="F183">
         <f t="shared" si="7"/>
-        <v>5.7169184157420005E-2</v>
+        <v>-9.6730815842580142E-2</v>
       </c>
       <c r="G183">
         <f t="shared" si="8"/>
-        <v>3.2683156172250024E-3</v>
+        <v>9.3568507335711534E-3</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -16087,16 +16336,16 @@
         <v>5.3535056802520415</v>
       </c>
       <c r="E184">
-        <f>+alfa+beta+phi*D183+epsilon</f>
-        <v>5.0011309414717662</v>
+        <f>+alfa+beta*A183+phi*D183</f>
+        <v>5.1562309414717662</v>
       </c>
       <c r="F184">
         <f t="shared" si="7"/>
-        <v>0.35237473878027537</v>
+        <v>0.19727473878027535</v>
       </c>
       <c r="G184">
         <f t="shared" si="8"/>
-        <v>0.1241679565304673</v>
+        <v>3.8917322560825876E-2</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -16114,16 +16363,16 @@
         <v>5.1275429728225799</v>
       </c>
       <c r="E185">
-        <f>+alfa+beta+phi*D184+epsilon</f>
-        <v>5.1611775367759591</v>
+        <f>+alfa+beta*A184+phi*D184</f>
+        <v>5.317477536775959</v>
       </c>
       <c r="F185">
         <f t="shared" si="7"/>
-        <v>-3.3634563953379271E-2</v>
+        <v>-0.18993456395337915</v>
       </c>
       <c r="G185">
         <f t="shared" si="8"/>
-        <v>1.1312838923339603E-3</v>
+        <v>3.6075138584160275E-2</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -16141,16 +16390,16 @@
         <v>5.6407106736908759</v>
       </c>
       <c r="E186">
-        <f>+alfa+beta+phi*D185+epsilon</f>
-        <v>4.9747357068759097</v>
+        <f>+alfa+beta*A185+phi*D185</f>
+        <v>5.1322357068759104</v>
       </c>
       <c r="F186">
         <f t="shared" si="7"/>
-        <v>0.66597496681496615</v>
+        <v>0.50847496681496551</v>
       </c>
       <c r="G186">
         <f t="shared" si="8"/>
-        <v>0.44352265642419525</v>
+        <v>0.25854679187748025</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -16168,16 +16417,16 @@
         <v>5.29799162947117</v>
       </c>
       <c r="E187">
-        <f>+alfa+beta+phi*D186+epsilon</f>
-        <v>5.3981503768623416</v>
+        <f>+alfa+beta*A186+phi*D186</f>
+        <v>5.5568503768623421</v>
       </c>
       <c r="F187">
         <f t="shared" si="7"/>
-        <v>-0.10015874739117159</v>
+        <v>-0.25885874739117209</v>
       </c>
       <c r="G187">
         <f t="shared" si="8"/>
-        <v>1.0031774678968521E-2</v>
+        <v>6.7007851100926649E-2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -16195,16 +16444,16 @@
         <v>5.3866082896230685</v>
       </c>
       <c r="E188">
-        <f>+alfa+beta+phi*D187+epsilon</f>
-        <v>5.1153728934766622</v>
+        <f>+alfa+beta*A187+phi*D187</f>
+        <v>5.2752728934766626</v>
       </c>
       <c r="F188">
         <f t="shared" si="7"/>
-        <v>0.27123539614640624</v>
+        <v>0.11133539614640586</v>
       </c>
       <c r="G188">
         <f t="shared" si="8"/>
-        <v>7.3568640122697926E-2</v>
+        <v>1.2395570435077125E-2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -16222,16 +16471,16 @@
         <v>5.2628561430883867</v>
       </c>
       <c r="E189">
-        <f>+alfa+beta+phi*D188+epsilon</f>
-        <v>5.188490499767993</v>
+        <f>+alfa+beta*A188+phi*D188</f>
+        <v>5.3495904997679933</v>
       </c>
       <c r="F189">
         <f t="shared" si="7"/>
-        <v>7.4365643320393637E-2</v>
+        <v>-8.6734356679606606E-2</v>
       </c>
       <c r="G189">
         <f t="shared" si="8"/>
-        <v>5.5302489064560072E-3</v>
+        <v>7.5228486286252191E-3</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -16249,16 +16498,16 @@
         <v>6.1753986314388838</v>
       </c>
       <c r="E190">
-        <f>+alfa+beta+phi*D189+epsilon</f>
-        <v>5.0863826036622273</v>
+        <f>+alfa+beta*A189+phi*D189</f>
+        <v>5.2486826036622274</v>
       </c>
       <c r="F190">
         <f t="shared" si="7"/>
-        <v>1.0890160277766565</v>
+        <v>0.9267160277766564</v>
       </c>
       <c r="G190">
         <f t="shared" si="8"/>
-        <v>1.1859559087544476</v>
+        <v>0.85880259613814458</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -16276,16 +16525,16 @@
         <v>7.0433616319380743</v>
       </c>
       <c r="E191">
-        <f>+alfa+beta+phi*D190+epsilon</f>
-        <v>5.8393214108002223</v>
+        <f>+alfa+beta*A190+phi*D190</f>
+        <v>6.0028214108002222</v>
       </c>
       <c r="F191">
         <f t="shared" si="7"/>
-        <v>1.204040221137852</v>
+        <v>1.0405402211378521</v>
       </c>
       <c r="G191">
         <f t="shared" si="8"/>
-        <v>1.4497128541176876</v>
+        <v>1.08272395180561</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -16303,16 +16552,16 @@
         <v>6.67252943023583</v>
       </c>
       <c r="E192">
-        <f>+alfa+beta+phi*D191+epsilon</f>
-        <v>6.5554776825121044</v>
+        <f>+alfa+beta*A191+phi*D191</f>
+        <v>6.7201776825121042</v>
       </c>
       <c r="F192">
         <f t="shared" si="7"/>
-        <v>0.11705174772372562</v>
+        <v>-4.7648252276274228E-2</v>
       </c>
       <c r="G192">
         <f t="shared" si="8"/>
-        <v>1.3701111645178706E-2</v>
+        <v>2.2703559449834721E-3</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -16330,16 +16579,16 @@
         <v>6.4766671397697433</v>
       </c>
       <c r="E193">
-        <f>+alfa+beta+phi*D192+epsilon</f>
-        <v>6.2495040328875824</v>
+        <f>+alfa+beta*A192+phi*D192</f>
+        <v>6.415404032887583</v>
       </c>
       <c r="F193">
         <f t="shared" si="7"/>
-        <v>0.2271631068821609</v>
+        <v>6.1263106882160301E-2</v>
       </c>
       <c r="G193">
         <f t="shared" si="8"/>
-        <v>5.1603077128356059E-2</v>
+        <v>3.7531682648549967E-3</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -16357,16 +16606,16 @@
         <v>6.3716761447260977</v>
       </c>
       <c r="E194">
-        <f>+alfa+beta+phi*D193+epsilon</f>
-        <v>6.0878980570240149</v>
+        <f>+alfa+beta*A193+phi*D193</f>
+        <v>6.2549980570240153</v>
       </c>
       <c r="F194">
         <f t="shared" si="7"/>
-        <v>0.28377808770208279</v>
+        <v>0.11667808770208232</v>
       </c>
       <c r="G194">
         <f t="shared" si="8"/>
-        <v>8.0530003059850988E-2</v>
+        <v>1.3613776149814814E-2</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -16384,16 +16633,16 @@
         <v>6.4992092722053343</v>
       </c>
       <c r="E195">
-        <f>+alfa+beta+phi*D194+epsilon</f>
-        <v>6.0012699870135027</v>
+        <f>+alfa+beta*A194+phi*D194</f>
+        <v>6.169569987013503</v>
       </c>
       <c r="F195">
         <f t="shared" si="7"/>
-        <v>0.49793928519183162</v>
+        <v>0.32963928519183128</v>
       </c>
       <c r="G195">
         <f t="shared" si="8"/>
-        <v>0.24794353173735223</v>
+        <v>0.10866205834178147</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -16411,16 +16660,16 @@
         <v>6.7325994492814711</v>
       </c>
       <c r="E196">
-        <f>+alfa+beta+phi*D195+epsilon</f>
-        <v>6.1064975704966207</v>
+        <f>+alfa+beta*A195+phi*D195</f>
+        <v>6.2759975704966209</v>
       </c>
       <c r="F196">
         <f t="shared" ref="F196:F259" si="10">+D196-E196</f>
-        <v>0.62610187878485046</v>
+        <v>0.45660187878485026</v>
       </c>
       <c r="G196">
         <f t="shared" ref="G196:G259" si="11">+F196*F196</f>
-        <v>0.39200356261791958</v>
+        <v>0.20848527570985509</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -16438,16 +16687,16 @@
         <v>5.8413056225762423</v>
       </c>
       <c r="E197">
-        <f>+alfa+beta+phi*D196+epsilon</f>
-        <v>6.2990678056021414</v>
+        <f>+alfa+beta*A196+phi*D196</f>
+        <v>6.4697678056021415</v>
       </c>
       <c r="F197">
         <f t="shared" si="10"/>
-        <v>-0.45776218302589911</v>
+        <v>-0.62846218302589918</v>
       </c>
       <c r="G197">
         <f t="shared" si="11"/>
-        <v>0.20954621620863675</v>
+        <v>0.39496471549367879</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -16465,16 +16714,16 @@
         <v>4.9731303808464755</v>
       </c>
       <c r="E198">
-        <f>+alfa+beta+phi*D197+epsilon</f>
-        <v>5.5636612691876568</v>
+        <f>+alfa+beta*A197+phi*D197</f>
+        <v>5.7355612691876567</v>
       </c>
       <c r="F198">
         <f t="shared" si="10"/>
-        <v>-0.59053088834118128</v>
+        <v>-0.76243088834118122</v>
       </c>
       <c r="G198">
         <f t="shared" si="11"/>
-        <v>0.34872673008502469</v>
+        <v>0.58130085949672272</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -16492,16 +16741,16 @@
         <v>5.2079065293736324</v>
       </c>
       <c r="E199">
-        <f>+alfa+beta+phi*D198+epsilon</f>
-        <v>4.8473298772364268</v>
+        <f>+alfa+beta*A198+phi*D198</f>
+        <v>5.0204298772364266</v>
       </c>
       <c r="F199">
         <f t="shared" si="10"/>
-        <v>0.36057665213720558</v>
+        <v>0.18747665213720577</v>
       </c>
       <c r="G199">
         <f t="shared" si="11"/>
-        <v>0.13001552206647535</v>
+        <v>3.514749509657486E-2</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -16519,16 +16768,16 @@
         <v>4.9150034107659524</v>
       </c>
       <c r="E200">
-        <f>+alfa+beta+phi*D199+epsilon</f>
-        <v>5.0410436773861838</v>
+        <f>+alfa+beta*A199+phi*D199</f>
+        <v>5.2153436773861834</v>
       </c>
       <c r="F200">
         <f t="shared" si="10"/>
-        <v>-0.12604026662023138</v>
+        <v>-0.30034026662023106</v>
       </c>
       <c r="G200">
         <f t="shared" si="11"/>
-        <v>1.5886148809699012E-2</v>
+        <v>9.0204275753511476E-2</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -16546,16 +16795,16 @@
         <v>5.3513476388923884</v>
       </c>
       <c r="E201">
-        <f>+alfa+beta+phi*D200+epsilon</f>
-        <v>4.7993693142229867</v>
+        <f>+alfa+beta*A200+phi*D200</f>
+        <v>4.9748693142229872</v>
       </c>
       <c r="F201">
         <f t="shared" si="10"/>
-        <v>0.55197832466940167</v>
+        <v>0.37647832466940123</v>
       </c>
       <c r="G201">
         <f t="shared" si="11"/>
-        <v>0.3046800709048394</v>
+        <v>0.14173592894587908</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -16573,16 +16822,16 @@
         <v>5.0914813704699</v>
       </c>
       <c r="E202">
-        <f>+alfa+beta+phi*D201+epsilon</f>
-        <v>5.1593969368501096</v>
+        <f>+alfa+beta*A201+phi*D201</f>
+        <v>5.3360969368501099</v>
       </c>
       <c r="F202">
         <f t="shared" si="10"/>
-        <v>-6.7915566380209569E-2</v>
+        <v>-0.24461556638020987</v>
       </c>
       <c r="G202">
         <f t="shared" si="11"/>
-        <v>4.6125241567446526E-3</v>
+        <v>5.9836775315510862E-2</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -16600,16 +16849,16 @@
         <v>5.2807280718761529</v>
       </c>
       <c r="E203">
-        <f>+alfa+beta+phi*D202+epsilon</f>
-        <v>4.9449812787747138</v>
+        <f>+alfa+beta*A202+phi*D202</f>
+        <v>5.122881278774714</v>
       </c>
       <c r="F203">
         <f t="shared" si="10"/>
-        <v>0.33574679310143907</v>
+        <v>0.1578467931014389</v>
       </c>
       <c r="G203">
         <f t="shared" si="11"/>
-        <v>0.11272590907790053</v>
+        <v>2.4915610092408457E-2</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -16627,16 +16876,16 @@
         <v>5.1676001909382068</v>
       </c>
       <c r="E204">
-        <f>+alfa+beta+phi*D203+epsilon</f>
-        <v>5.1011287321050132</v>
+        <f>+alfa+beta*A203+phi*D203</f>
+        <v>5.2802287321050132</v>
       </c>
       <c r="F204">
         <f t="shared" si="10"/>
-        <v>6.6471458833193608E-2</v>
+        <v>-0.11262854116680643</v>
       </c>
       <c r="G204">
         <f t="shared" si="11"/>
-        <v>4.4184548394129528E-3</v>
+        <v>1.2685188285363011E-2</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -16654,16 +16903,16 @@
         <v>4.706153367996766</v>
       </c>
       <c r="E205">
-        <f>+alfa+beta+phi*D204+epsilon</f>
-        <v>5.0077869175431138</v>
+        <f>+alfa+beta*A204+phi*D204</f>
+        <v>5.1880869175431137</v>
       </c>
       <c r="F205">
         <f t="shared" si="10"/>
-        <v>-0.3016335495463478</v>
+        <v>-0.48193354954634771</v>
       </c>
       <c r="G205">
         <f t="shared" si="11"/>
-        <v>9.0982798211929047E-2</v>
+        <v>0.23225994617834197</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -16681,16 +16930,16 @@
         <v>4.8024315499791674</v>
       </c>
       <c r="E206">
-        <f>+alfa+beta+phi*D205+epsilon</f>
-        <v>4.6270471439341314</v>
+        <f>+alfa+beta*A205+phi*D205</f>
+        <v>4.8085471439341312</v>
       </c>
       <c r="F206">
         <f t="shared" si="10"/>
-        <v>0.17538440604503602</v>
+        <v>-6.1155939549637495E-3</v>
       </c>
       <c r="G206">
         <f t="shared" si="11"/>
-        <v>3.0759689883770067E-2</v>
+        <v>3.7400489421989157E-5</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -16708,16 +16957,16 @@
         <v>5.0982717799305046</v>
       </c>
       <c r="E207">
-        <f>+alfa+beta+phi*D206+epsilon</f>
-        <v>4.7064862718878109</v>
+        <f>+alfa+beta*A206+phi*D206</f>
+        <v>4.8891862718878105</v>
       </c>
       <c r="F207">
         <f t="shared" si="10"/>
-        <v>0.39178550804269374</v>
+        <v>0.2090855080426941</v>
       </c>
       <c r="G207">
         <f t="shared" si="11"/>
-        <v>0.15349588431227165</v>
+        <v>4.37167496734715E-2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -16735,16 +16984,16 @@
         <v>4.8445096036825479</v>
       </c>
       <c r="E208">
-        <f>+alfa+beta+phi*D207+epsilon</f>
-        <v>4.9505840456206585</v>
+        <f>+alfa+beta*A207+phi*D207</f>
+        <v>5.1344840456206589</v>
       </c>
       <c r="F208">
         <f t="shared" si="10"/>
-        <v>-0.10607444193811055</v>
+        <v>-0.28997444193811095</v>
       </c>
       <c r="G208">
         <f t="shared" si="11"/>
-        <v>1.1251787232481587E-2</v>
+        <v>8.4085176977318876E-2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -16762,16 +17011,16 @@
         <v>4.6367364809873184</v>
       </c>
       <c r="E209">
-        <f>+alfa+beta+phi*D208+epsilon</f>
-        <v>4.7412048739984698</v>
+        <f>+alfa+beta*A208+phi*D208</f>
+        <v>4.9263048739984701</v>
       </c>
       <c r="F209">
         <f t="shared" si="10"/>
-        <v>-0.10446839301115141</v>
+        <v>-0.28956839301115167</v>
       </c>
       <c r="G209">
         <f t="shared" si="11"/>
-        <v>1.0913645138332389E-2</v>
+        <v>8.3849854231060797E-2</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -16789,16 +17038,16 @@
         <v>4.3057643255949154</v>
       </c>
       <c r="E210">
-        <f>+alfa+beta+phi*D209+epsilon</f>
-        <v>4.5697712704626365</v>
+        <f>+alfa+beta*A209+phi*D209</f>
+        <v>4.7560712704626358</v>
       </c>
       <c r="F210">
         <f t="shared" si="10"/>
-        <v>-0.26400694486772114</v>
+        <v>-0.45030694486772038</v>
       </c>
       <c r="G210">
         <f t="shared" si="11"/>
-        <v>6.9699666938387944E-2</v>
+        <v>0.20277634459610017</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -16816,16 +17065,16 @@
         <v>4.2471491398367824</v>
       </c>
       <c r="E211">
-        <f>+alfa+beta+phi*D210+epsilon</f>
-        <v>4.2966861450483647</v>
+        <f>+alfa+beta*A210+phi*D210</f>
+        <v>4.4841861450483647</v>
       </c>
       <c r="F211">
         <f t="shared" si="10"/>
-        <v>-4.9537005211582219E-2</v>
+        <v>-0.23703700521158222</v>
       </c>
       <c r="G211">
         <f t="shared" si="11"/>
-        <v>2.4539148853323241E-3</v>
+        <v>5.6186541839675655E-2</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -16843,16 +17092,16 @@
         <v>4.2836465807693367</v>
       </c>
       <c r="E212">
-        <f>+alfa+beta+phi*D211+epsilon</f>
-        <v>4.2483227552793288</v>
+        <f>+alfa+beta*A211+phi*D211</f>
+        <v>4.4370227552793287</v>
       </c>
       <c r="F212">
         <f t="shared" si="10"/>
-        <v>3.5323825490007899E-2</v>
+        <v>-0.15337617450999197</v>
       </c>
       <c r="G212">
         <f t="shared" si="11"/>
-        <v>1.2477726472485318E-3</v>
+        <v>2.3524250907319511E-2</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -16870,16 +17119,16 @@
         <v>4.5652213429985311</v>
       </c>
       <c r="E213">
-        <f>+alfa+beta+phi*D212+epsilon</f>
-        <v>4.2784367937927792</v>
+        <f>+alfa+beta*A212+phi*D212</f>
+        <v>4.4683367937927798</v>
       </c>
       <c r="F213">
         <f t="shared" si="10"/>
-        <v>0.28678454920575192</v>
+        <v>9.6884549205751291E-2</v>
       </c>
       <c r="G213">
         <f t="shared" si="11"/>
-        <v>8.2245377663146338E-2</v>
+        <v>9.3866158748016435E-3</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -16897,16 +17146,16 @@
         <v>4.8659563450862153</v>
       </c>
       <c r="E214">
-        <f>+alfa+beta+phi*D213+epsilon</f>
-        <v>4.5107641301080879</v>
+        <f>+alfa+beta*A213+phi*D213</f>
+        <v>4.7018641301080875</v>
       </c>
       <c r="F214">
         <f t="shared" si="10"/>
-        <v>0.35519221497812747</v>
+        <v>0.16409221497812787</v>
       </c>
       <c r="G214">
         <f t="shared" si="11"/>
-        <v>0.12616150958106831</v>
+        <v>2.6926255016428133E-2</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -16924,16 +17173,16 @@
         <v>4.9724459538787773</v>
       </c>
       <c r="E215">
-        <f>+alfa+beta+phi*D214+epsilon</f>
-        <v>4.7589005803306357</v>
+        <f>+alfa+beta*A214+phi*D214</f>
+        <v>4.951200580330636</v>
       </c>
       <c r="F215">
         <f t="shared" si="10"/>
-        <v>0.21354537354814163</v>
+        <v>2.1245373548141266E-2</v>
       </c>
       <c r="G215">
         <f t="shared" si="11"/>
-        <v>4.5601626563815348E-2</v>
+        <v>4.5136589720006062E-4</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -16951,16 +17200,16 @@
         <v>4.8965069527649279</v>
       </c>
       <c r="E216">
-        <f>+alfa+beta+phi*D215+epsilon</f>
-        <v>4.8467651565453789</v>
+        <f>+alfa+beta*A215+phi*D215</f>
+        <v>5.0402651565453791</v>
       </c>
       <c r="F216">
         <f t="shared" si="10"/>
-        <v>4.9741796219548995E-2</v>
+        <v>-0.14375820378045123</v>
       </c>
       <c r="G216">
         <f t="shared" si="11"/>
-        <v>2.4742462911471388E-3</v>
+        <v>2.0666421154181745E-2</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -16978,16 +17227,16 @@
         <v>4.6460422584473795</v>
       </c>
       <c r="E217">
-        <f>+alfa+beta+phi*D216+epsilon</f>
-        <v>4.7841078867263418</v>
+        <f>+alfa+beta*A216+phi*D216</f>
+        <v>4.9788078867263419</v>
       </c>
       <c r="F217">
         <f t="shared" si="10"/>
-        <v>-0.13806562827896229</v>
+        <v>-0.33276562827896239</v>
       </c>
       <c r="G217">
         <f t="shared" si="11"/>
-        <v>1.9062117712064591E-2</v>
+        <v>0.11073296336389257</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -17005,16 +17254,16 @@
         <v>4.8561575189348956</v>
       </c>
       <c r="E218">
-        <f>+alfa+beta+phi*D217+epsilon</f>
-        <v>4.5774494674449322</v>
+        <f>+alfa+beta*A217+phi*D217</f>
+        <v>4.7733494674449322</v>
       </c>
       <c r="F218">
         <f t="shared" si="10"/>
-        <v>0.27870805148996336</v>
+        <v>8.2808051489963397E-2</v>
       </c>
       <c r="G218">
         <f t="shared" si="11"/>
-        <v>7.7678177965332065E-2</v>
+        <v>6.8571733915644287E-3</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -17032,16 +17281,16 @@
         <v>4.9713703428649172</v>
       </c>
       <c r="E219">
-        <f>+alfa+beta+phi*D218+epsilon</f>
-        <v>4.7508155688731817</v>
+        <f>+alfa+beta*A218+phi*D218</f>
+        <v>4.9479155688731815</v>
       </c>
       <c r="F219">
         <f t="shared" si="10"/>
-        <v>0.22055477399173551</v>
+        <v>2.3454773991735678E-2</v>
       </c>
       <c r="G219">
         <f t="shared" si="11"/>
-        <v>4.8644408330545529E-2</v>
+        <v>5.5012642300340038E-4</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -17059,16 +17308,16 @@
         <v>5.1677106739635974</v>
       </c>
       <c r="E220">
-        <f>+alfa+beta+phi*D219+epsilon</f>
-        <v>4.8458776698978427</v>
+        <f>+alfa+beta*A219+phi*D219</f>
+        <v>5.0441776698978433</v>
       </c>
       <c r="F220">
         <f t="shared" si="10"/>
-        <v>0.32183300406575466</v>
+        <v>0.12353300406575407</v>
       </c>
       <c r="G220">
         <f t="shared" si="11"/>
-        <v>0.10357648250598805</v>
+        <v>1.5260403093509612E-2</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -17086,16 +17335,16 @@
         <v>4.8312765523369787</v>
       </c>
       <c r="E221">
-        <f>+alfa+beta+phi*D220+epsilon</f>
-        <v>5.0078780770873639</v>
+        <f>+alfa+beta*A220+phi*D220</f>
+        <v>5.2073780770873643</v>
       </c>
       <c r="F221">
         <f t="shared" si="10"/>
-        <v>-0.17660152475038515</v>
+        <v>-0.37610152475038561</v>
       </c>
       <c r="G221">
         <f t="shared" si="11"/>
-        <v>3.1188098544160901E-2</v>
+        <v>0.14145235691956493</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -17113,16 +17362,16 @@
         <v>4.3531785196942785</v>
       </c>
       <c r="E222">
-        <f>+alfa+beta+phi*D221+epsilon</f>
-        <v>4.7302862833332409</v>
+        <f>+alfa+beta*A221+phi*D221</f>
+        <v>4.9309862833332412</v>
       </c>
       <c r="F222">
         <f t="shared" si="10"/>
-        <v>-0.37710776363896237</v>
+        <v>-0.57780776363896269</v>
       </c>
       <c r="G222">
         <f t="shared" si="11"/>
-        <v>0.1422102653967795</v>
+        <v>0.3338618117214594</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -17140,16 +17389,16 @@
         <v>4.3266142229440971</v>
       </c>
       <c r="E223">
-        <f>+alfa+beta+phi*D222+epsilon</f>
-        <v>4.3358075965997491</v>
+        <f>+alfa+beta*A222+phi*D222</f>
+        <v>4.5377075965997484</v>
       </c>
       <c r="F223">
         <f t="shared" si="10"/>
-        <v>-9.1933736556519818E-3</v>
+        <v>-0.21109337365565128</v>
       </c>
       <c r="G223">
         <f t="shared" si="11"/>
-        <v>8.4518119172435883E-5</v>
+        <v>4.4560412401324412E-2</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -17167,16 +17416,16 @@
         <v>4.4408327025256931</v>
       </c>
       <c r="E224">
-        <f>+alfa+beta+phi*D223+epsilon</f>
-        <v>4.3138893953511745</v>
+        <f>+alfa+beta*A223+phi*D223</f>
+        <v>4.5169893953511746</v>
       </c>
       <c r="F224">
         <f t="shared" si="10"/>
-        <v>0.12694330717451852</v>
+        <v>-7.6156692825481542E-2</v>
       </c>
       <c r="G224">
         <f t="shared" si="11"/>
-        <v>1.6114603236404165E-2</v>
+        <v>5.799841862114752E-3</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -17194,16 +17443,16 @@
         <v>4.6435341778729375</v>
       </c>
       <c r="E225">
-        <f>+alfa+beta+phi*D224+epsilon</f>
-        <v>4.4081310628539487</v>
+        <f>+alfa+beta*A224+phi*D224</f>
+        <v>4.6124310628539487</v>
       </c>
       <c r="F225">
         <f t="shared" si="10"/>
-        <v>0.23540311501898881</v>
+        <v>3.1103115018988881E-2</v>
       </c>
       <c r="G225">
         <f t="shared" si="11"/>
-        <v>5.5414626560643276E-2</v>
+        <v>9.6740376388445171E-4</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -17221,16 +17470,16 @@
         <v>4.7088002850565092</v>
       </c>
       <c r="E226">
-        <f>+alfa+beta+phi*D225+epsilon</f>
-        <v>4.5753800501629609</v>
+        <f>+alfa+beta*A225+phi*D225</f>
+        <v>4.7808800501629607</v>
       </c>
       <c r="F226">
         <f t="shared" si="10"/>
-        <v>0.13342023489354826</v>
+        <v>-7.2079765106451532E-2</v>
       </c>
       <c r="G226">
         <f t="shared" si="11"/>
-        <v>1.7800959079049595E-2</v>
+        <v>5.1954925378012275E-3</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -17248,16 +17497,16 @@
         <v>4.8859540149464245</v>
       </c>
       <c r="E227">
-        <f>+alfa+beta+phi*D226+epsilon</f>
-        <v>4.6292311152001258</v>
+        <f>+alfa+beta*A226+phi*D226</f>
+        <v>4.8359311152001254</v>
       </c>
       <c r="F227">
         <f t="shared" si="10"/>
-        <v>0.25672289974629869</v>
+        <v>5.0022899746299032E-2</v>
       </c>
       <c r="G227">
         <f t="shared" si="11"/>
-        <v>6.5906647254148132E-2</v>
+        <v>2.5022904990282839E-3</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -17275,16 +17524,16 @@
         <v>4.6835304035441041</v>
       </c>
       <c r="E228">
-        <f>+alfa+beta+phi*D227+epsilon</f>
-        <v>4.7754006577322947</v>
+        <f>+alfa+beta*A227+phi*D227</f>
+        <v>4.9833006577322951</v>
       </c>
       <c r="F228">
         <f t="shared" si="10"/>
-        <v>-9.1870254188190614E-2</v>
+        <v>-0.29977025418819103</v>
       </c>
       <c r="G228">
         <f t="shared" si="11"/>
-        <v>8.4401436046027557E-3</v>
+        <v>8.9862205296052669E-2</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -17302,16 +17551,16 @@
         <v>5.2751466053881968</v>
       </c>
       <c r="E229">
-        <f>+alfa+beta+phi*D228+epsilon</f>
-        <v>4.6083809359642398</v>
+        <f>+alfa+beta*A228+phi*D228</f>
+        <v>4.8174809359642401</v>
       </c>
       <c r="F229">
         <f t="shared" si="10"/>
-        <v>0.66676566942395699</v>
+        <v>0.4576656694239567</v>
       </c>
       <c r="G229">
         <f t="shared" si="11"/>
-        <v>0.44457645792237749</v>
+        <v>0.2094578649692784</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -17329,16 +17578,16 @@
         <v>5.7015243638944471</v>
       </c>
       <c r="E230">
-        <f>+alfa+beta+phi*D229+epsilon</f>
-        <v>5.0965234641058004</v>
+        <f>+alfa+beta*A229+phi*D229</f>
+        <v>5.3068234641058005</v>
       </c>
       <c r="F230">
         <f t="shared" si="10"/>
-        <v>0.60500089978864668</v>
+        <v>0.39470089978864653</v>
       </c>
       <c r="G230">
         <f t="shared" si="11"/>
-        <v>0.36602608874507209</v>
+        <v>0.15578880029396719</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -17356,16 +17605,16 @@
         <v>5.7727529783576408</v>
       </c>
       <c r="E231">
-        <f>+alfa+beta+phi*D230+epsilon</f>
-        <v>5.4483277526493081</v>
+        <f>+alfa+beta*A230+phi*D230</f>
+        <v>5.6598277526493082</v>
       </c>
       <c r="F231">
         <f t="shared" si="10"/>
-        <v>0.32442522570833265</v>
+        <v>0.11292522570833263</v>
       </c>
       <c r="G231">
         <f t="shared" si="11"/>
-        <v>0.10525172707590259</v>
+        <v>1.2752106601277869E-2</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -17383,16 +17632,16 @@
         <v>5.6291827043597262</v>
       </c>
       <c r="E232">
-        <f>+alfa+beta+phi*D231+epsilon</f>
-        <v>5.5070984824428892</v>
+        <f>+alfa+beta*A231+phi*D231</f>
+        <v>5.7197984824428891</v>
       </c>
       <c r="F232">
         <f t="shared" si="10"/>
-        <v>0.12208422191683699</v>
+        <v>-9.0615778083162901E-2</v>
       </c>
       <c r="G232">
         <f t="shared" si="11"/>
-        <v>1.4904557241039501E-2</v>
+        <v>8.2112192376170255E-3</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -17410,16 +17659,16 @@
         <v>5.3232521122756191</v>
       </c>
       <c r="E233">
-        <f>+alfa+beta+phi*D232+epsilon</f>
-        <v>5.3886386493672092</v>
+        <f>+alfa+beta*A232+phi*D232</f>
+        <v>5.6025386493672098</v>
       </c>
       <c r="F233">
         <f t="shared" si="10"/>
-        <v>-6.5386537091590036E-2</v>
+        <v>-0.27928653709159068</v>
       </c>
       <c r="G233">
         <f t="shared" si="11"/>
-        <v>4.2753992328298795E-3</v>
+        <v>7.8000969800612455E-2</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -17437,16 +17686,16 @@
         <v>5.223886050012716</v>
       </c>
       <c r="E234">
-        <f>+alfa+beta+phi*D233+epsilon</f>
-        <v>5.1362153178386132</v>
+        <f>+alfa+beta*A233+phi*D233</f>
+        <v>5.3513153178386137</v>
       </c>
       <c r="F234">
         <f t="shared" si="10"/>
-        <v>8.7670732174102817E-2</v>
+        <v>-0.1274292678258977</v>
       </c>
       <c r="G234">
         <f t="shared" si="11"/>
-        <v>7.6861572799432664E-3</v>
+        <v>1.6238218298644365E-2</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -17464,16 +17713,16 @@
         <v>4.825309314431351</v>
       </c>
       <c r="E235">
-        <f>+alfa+beta+phi*D234+epsilon</f>
-        <v>5.0542283798654912</v>
+        <f>+alfa+beta*A234+phi*D234</f>
+        <v>5.2705283798654916</v>
       </c>
       <c r="F235">
         <f t="shared" si="10"/>
-        <v>-0.2289190654341402</v>
+        <v>-0.44521906543414058</v>
       </c>
       <c r="G235">
         <f t="shared" si="11"/>
-        <v>5.2403938519240162E-2</v>
+        <v>0.19822001622604957</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -17491,16 +17740,16 @@
         <v>4.9022879681929901</v>
       </c>
       <c r="E236">
-        <f>+alfa+beta+phi*D235+epsilon</f>
-        <v>4.7253627153373072</v>
+        <f>+alfa+beta*A235+phi*D235</f>
+        <v>4.9428627153373075</v>
       </c>
       <c r="F236">
         <f t="shared" si="10"/>
-        <v>0.17692525285568284</v>
+        <v>-4.0574747144317413E-2</v>
       </c>
       <c r="G236">
         <f t="shared" si="11"/>
-        <v>3.1302545098047307E-2</v>
+        <v>1.6463101058252941E-3</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -17518,16 +17767,16 @@
         <v>5.0951739695601299</v>
       </c>
       <c r="E237">
-        <f>+alfa+beta+phi*D236+epsilon</f>
-        <v>4.7888778025560352</v>
+        <f>+alfa+beta*A236+phi*D236</f>
+        <v>5.0075778025560354</v>
       </c>
       <c r="F237">
         <f t="shared" si="10"/>
-        <v>0.30629616700409468</v>
+        <v>8.7596167004094561E-2</v>
       </c>
       <c r="G237">
         <f t="shared" si="11"/>
-        <v>9.381734192140026E-2</v>
+        <v>7.6730884738092243E-3</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -17545,16 +17794,16 @@
         <v>5.6934338080500009</v>
       </c>
       <c r="E238">
-        <f>+alfa+beta+phi*D237+epsilon</f>
-        <v>4.9480280422840623</v>
+        <f>+alfa+beta*A237+phi*D237</f>
+        <v>5.1679280422840623</v>
       </c>
       <c r="F238">
         <f t="shared" si="10"/>
-        <v>0.74540576576593853</v>
+        <v>0.52550576576593855</v>
       </c>
       <c r="G238">
         <f t="shared" si="11"/>
-        <v>0.55562975563710526</v>
+        <v>0.27615630985324546</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -17572,16 +17821,16 @@
         <v>5.8459900032781587</v>
       </c>
       <c r="E239">
-        <f>+alfa+beta+phi*D238+epsilon</f>
-        <v>5.4416522350220555</v>
+        <f>+alfa+beta*A238+phi*D238</f>
+        <v>5.6627522350220554</v>
       </c>
       <c r="F239">
         <f t="shared" si="10"/>
-        <v>0.40433776825610312</v>
+        <v>0.18323776825610327</v>
       </c>
       <c r="G239">
         <f t="shared" si="11"/>
-        <v>0.16348903083832617</v>
+        <v>3.3576079715477408E-2</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -17599,16 +17848,16 @@
         <v>5.5167063864727837</v>
       </c>
       <c r="E240">
-        <f>+alfa+beta+phi*D239+epsilon</f>
-        <v>5.5675263517048084</v>
+        <f>+alfa+beta*A239+phi*D239</f>
+        <v>5.789826351704809</v>
       </c>
       <c r="F240">
         <f t="shared" si="10"/>
-        <v>-5.08199652320247E-2</v>
+        <v>-0.27311996523202531</v>
       </c>
       <c r="G240">
         <f t="shared" si="11"/>
-        <v>2.5826688661841992E-3</v>
+        <v>7.4594515408342707E-2</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -17626,16 +17875,16 @@
         <v>5.7862460799451227</v>
       </c>
       <c r="E241">
-        <f>+alfa+beta+phi*D240+epsilon</f>
-        <v>5.2958344394786936</v>
+        <f>+alfa+beta*A240+phi*D240</f>
+        <v>5.5193344394786941</v>
       </c>
       <c r="F241">
         <f t="shared" si="10"/>
-        <v>0.49041164046642916</v>
+        <v>0.26691164046642868</v>
       </c>
       <c r="G241">
         <f t="shared" si="11"/>
-        <v>0.24050357710497416</v>
+        <v>7.1241823816480088E-2</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -17653,16 +17902,16 @@
         <v>5.8333195123818733</v>
       </c>
       <c r="E242">
-        <f>+alfa+beta+phi*D241+epsilon</f>
-        <v>5.5182316405627203</v>
+        <f>+alfa+beta*A241+phi*D241</f>
+        <v>5.7429316405627207</v>
       </c>
       <c r="F242">
         <f t="shared" si="10"/>
-        <v>0.31508787181915299</v>
+        <v>9.0387871819152643E-2</v>
       </c>
       <c r="G242">
         <f t="shared" si="11"/>
-        <v>9.9280366967522987E-2</v>
+        <v>8.1699673719955682E-3</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -17680,16 +17929,16 @@
         <v>6.1033468218875875</v>
       </c>
       <c r="E243">
-        <f>+alfa+beta+phi*D242+epsilon</f>
-        <v>5.5570719296662832</v>
+        <f>+alfa+beta*A242+phi*D242</f>
+        <v>5.7829719296662834</v>
       </c>
       <c r="F243">
         <f t="shared" si="10"/>
-        <v>0.54627489222130432</v>
+        <v>0.32037489222130411</v>
       </c>
       <c r="G243">
         <f t="shared" si="11"/>
-        <v>0.29841625787139764</v>
+        <v>0.10264007156581223</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -17707,16 +17956,16 @@
         <v>5.8610238070911542</v>
       </c>
       <c r="E244">
-        <f>+alfa+beta+phi*D243+epsilon</f>
-        <v>5.7798714627394476</v>
+        <f>+alfa+beta*A243+phi*D243</f>
+        <v>6.0069714627394477</v>
       </c>
       <c r="F244">
         <f t="shared" si="10"/>
-        <v>8.1152344351706596E-2</v>
+        <v>-0.14594765564829348</v>
       </c>
       <c r="G244">
         <f t="shared" si="11"/>
-        <v>6.585702993777965E-3</v>
+        <v>2.1300718189232851E-2</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -17734,16 +17983,16 @@
         <v>5.551094209827153</v>
       </c>
       <c r="E245">
-        <f>+alfa+beta+phi*D244+epsilon</f>
-        <v>5.5799307432309107</v>
+        <f>+alfa+beta*A244+phi*D244</f>
+        <v>5.8082307432309106</v>
       </c>
       <c r="F245">
         <f t="shared" si="10"/>
-        <v>-2.8836533403757691E-2</v>
+        <v>-0.25713653340375764</v>
       </c>
       <c r="G245">
         <f t="shared" si="11"/>
-        <v>8.3154565874603314E-4</v>
+        <v>6.6119196810901767E-2</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -17761,16 +18010,16 @@
         <v>5.9392133932860567</v>
       </c>
       <c r="E246">
-        <f>+alfa+beta+phi*D245+epsilon</f>
-        <v>5.3242078325283835</v>
+        <f>+alfa+beta*A245+phi*D245</f>
+        <v>5.5537078325283833</v>
       </c>
       <c r="F246">
         <f t="shared" si="10"/>
-        <v>0.61500556075767321</v>
+        <v>0.38550556075767339</v>
       </c>
       <c r="G246">
         <f t="shared" si="11"/>
-        <v>0.37823183976286007</v>
+        <v>0.1486145373750882</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -17788,16 +18037,16 @@
         <v>5.7660137907875253</v>
       </c>
       <c r="E247">
-        <f>+alfa+beta+phi*D246+epsilon</f>
-        <v>5.6444449708003246</v>
+        <f>+alfa+beta*A246+phi*D246</f>
+        <v>5.8751449708003243</v>
       </c>
       <c r="F247">
         <f t="shared" si="10"/>
-        <v>0.1215688199872007</v>
+        <v>-0.10913118001279898</v>
       </c>
       <c r="G247">
         <f t="shared" si="11"/>
-        <v>1.477897799308041E-2</v>
+        <v>1.1909614450985935E-2</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -17815,16 +18064,16 @@
         <v>5.1169688259563104</v>
       </c>
       <c r="E248">
-        <f>+alfa+beta+phi*D247+epsilon</f>
-        <v>5.5015379787787868</v>
+        <f>+alfa+beta*A247+phi*D247</f>
+        <v>5.7334379787787872</v>
       </c>
       <c r="F248">
         <f t="shared" si="10"/>
-        <v>-0.38456915282247639</v>
+        <v>-0.61646915282247683</v>
       </c>
       <c r="G248">
         <f t="shared" si="11"/>
-        <v>0.14789343330259719</v>
+        <v>0.38003421638166229</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -17842,16 +18091,16 @@
         <v>5.1050395273534672</v>
       </c>
       <c r="E249">
-        <f>+alfa+beta+phi*D248+epsilon</f>
-        <v>4.9660109782965511</v>
+        <f>+alfa+beta*A248+phi*D248</f>
+        <v>5.1991109782965514</v>
       </c>
       <c r="F249">
         <f t="shared" si="10"/>
-        <v>0.13902854905691608</v>
+        <v>-9.4071450943084223E-2</v>
       </c>
       <c r="G249">
         <f t="shared" si="11"/>
-        <v>1.9328937452871321E-2</v>
+        <v>8.8494378825371024E-3</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -17869,16 +18118,16 @@
         <v>5.0758029733329559</v>
       </c>
       <c r="E250">
-        <f>+alfa+beta+phi*D249+epsilon</f>
-        <v>4.956168114019345</v>
+        <f>+alfa+beta*A249+phi*D249</f>
+        <v>5.1904681140193452</v>
       </c>
       <c r="F250">
         <f t="shared" si="10"/>
-        <v>0.11963485931361095</v>
+        <v>-0.11466514068638922</v>
       </c>
       <c r="G250">
         <f t="shared" si="11"/>
-        <v>1.4312499562987486E-2</v>
+        <v>1.3148094488629433E-2</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -17896,16 +18145,16 @@
         <v>5.3837319047528389</v>
       </c>
       <c r="E251">
-        <f>+alfa+beta+phi*D250+epsilon</f>
-        <v>4.9320450332970216</v>
+        <f>+alfa+beta*A250+phi*D250</f>
+        <v>5.1675450332970216</v>
       </c>
       <c r="F251">
         <f t="shared" si="10"/>
-        <v>0.45168687145581732</v>
+        <v>0.21618687145581728</v>
       </c>
       <c r="G251">
         <f t="shared" si="11"/>
-        <v>0.20402102984554404</v>
+        <v>4.6736763389854059E-2</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -17923,16 +18172,16 @@
         <v>5.25830359961678</v>
       </c>
       <c r="E252">
-        <f>+alfa+beta+phi*D251+epsilon</f>
-        <v>5.1861171946115672</v>
+        <f>+alfa+beta*A251+phi*D251</f>
+        <v>5.4228171946115671</v>
       </c>
       <c r="F252">
         <f t="shared" si="10"/>
-        <v>7.2186405005212784E-2</v>
+        <v>-0.16451359499478713</v>
       </c>
       <c r="G252">
         <f t="shared" si="11"/>
-        <v>5.2108770675766093E-3</v>
+        <v>2.7064722938108847E-2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -17950,16 +18199,16 @@
         <v>5.1435444501609986</v>
       </c>
       <c r="E253">
-        <f>+alfa+beta+phi*D252+epsilon</f>
-        <v>5.0826263000438043</v>
+        <f>+alfa+beta*A252+phi*D252</f>
+        <v>5.3205263000438041</v>
       </c>
       <c r="F253">
         <f t="shared" si="10"/>
-        <v>6.0918150117194259E-2</v>
+        <v>-0.17698184988280552</v>
       </c>
       <c r="G253">
         <f t="shared" si="11"/>
-        <v>3.7110210137010148E-3</v>
+        <v>3.1322575187939905E-2</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -17977,16 +18226,16 @@
         <v>5.2244061041230587</v>
       </c>
       <c r="E254">
-        <f>+alfa+beta+phi*D253+epsilon</f>
-        <v>4.9879385258278397</v>
+        <f>+alfa+beta*A253+phi*D253</f>
+        <v>5.2270385258278402</v>
       </c>
       <c r="F254">
         <f t="shared" si="10"/>
-        <v>0.23646757829521903</v>
+        <v>-2.6324217047815068E-3</v>
       </c>
       <c r="G254">
         <f t="shared" si="11"/>
-        <v>5.5916915584805542E-2</v>
+        <v>6.9296440318047743E-6</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -18004,16 +18253,16 @@
         <v>5.6271138842586801</v>
       </c>
       <c r="E255">
-        <f>+alfa+beta+phi*D254+epsilon</f>
-        <v>5.0546574765119354</v>
+        <f>+alfa+beta*A254+phi*D254</f>
+        <v>5.2949574765119358</v>
       </c>
       <c r="F255">
         <f t="shared" si="10"/>
-        <v>0.57245640774674467</v>
+        <v>0.33215640774674426</v>
       </c>
       <c r="G255">
         <f t="shared" si="11"/>
-        <v>0.32770633877030719</v>
+        <v>0.11032787920722144</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -18031,16 +18280,16 @@
         <v>5.1686194212233856</v>
       </c>
       <c r="E256">
-        <f>+alfa+beta+phi*D255+epsilon</f>
-        <v>5.3869316659018365</v>
+        <f>+alfa+beta*A255+phi*D255</f>
+        <v>5.6284316659018367</v>
       </c>
       <c r="F256">
         <f t="shared" si="10"/>
-        <v>-0.2183122446784509</v>
+        <v>-0.45981224467845117</v>
       </c>
       <c r="G256">
         <f t="shared" si="11"/>
-        <v>4.7660236176543809E-2</v>
+        <v>0.21142730035623583</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -18058,16 +18307,16 @@
         <v>5.1338285837240099</v>
       </c>
       <c r="E257">
-        <f>+alfa+beta+phi*D256+epsilon</f>
-        <v>5.0086278844514149</v>
+        <f>+alfa+beta*A256+phi*D256</f>
+        <v>5.2513278844514151</v>
       </c>
       <c r="F257">
         <f t="shared" si="10"/>
-        <v>0.12520069927259492</v>
+        <v>-0.11749930072740522</v>
       </c>
       <c r="G257">
         <f t="shared" si="11"/>
-        <v>1.567521509834675E-2</v>
+        <v>1.3806085671429208E-2</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -18085,16 +18334,16 @@
         <v>4.6328038952456252</v>
       </c>
       <c r="E258">
-        <f>+alfa+beta+phi*D257+epsilon</f>
-        <v>4.9799219644306802</v>
+        <f>+alfa+beta*A257+phi*D257</f>
+        <v>5.2238219644306803</v>
       </c>
       <c r="F258">
         <f t="shared" si="10"/>
-        <v>-0.34711806918505506</v>
+        <v>-0.59101806918505506</v>
       </c>
       <c r="G258">
         <f t="shared" si="11"/>
-        <v>0.12049095395476067</v>
+        <v>0.34930235810323051</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -18112,16 +18361,16 @@
         <v>4.5138958511942242</v>
       </c>
       <c r="E259">
-        <f>+alfa+beta+phi*D258+epsilon</f>
-        <v>4.5665264939671655</v>
+        <f>+alfa+beta*A258+phi*D258</f>
+        <v>4.8116264939671654</v>
       </c>
       <c r="F259">
         <f t="shared" si="10"/>
-        <v>-5.2630642772941272E-2</v>
+        <v>-0.29773064277294115</v>
       </c>
       <c r="G259">
         <f t="shared" si="11"/>
-        <v>2.7699845586929553E-3</v>
+        <v>8.8643535645988689E-2</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -18139,16 +18388,16 @@
         <v>4.5227962930266141</v>
       </c>
       <c r="E260">
-        <f>+alfa+beta+phi*D259+epsilon</f>
-        <v>4.4684154668203542</v>
+        <f>+alfa+beta*A259+phi*D259</f>
+        <v>4.7147154668203539</v>
       </c>
       <c r="F260">
         <f t="shared" ref="F260:F292" si="13">+D260-E260</f>
-        <v>5.4380826206259947E-2</v>
+        <v>-0.19191917379373979</v>
       </c>
       <c r="G260">
         <f t="shared" ref="G260:G292" si="14">+F260*F260</f>
-        <v>2.9572742588754486E-3</v>
+        <v>3.6832969269671702E-2</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -18166,16 +18415,16 @@
         <v>4.5638321125742287</v>
       </c>
       <c r="E261">
-        <f>+alfa+beta+phi*D260+epsilon</f>
-        <v>4.4757592213762587</v>
+        <f>+alfa+beta*A260+phi*D260</f>
+        <v>4.7232592213762592</v>
       </c>
       <c r="F261">
         <f t="shared" si="13"/>
-        <v>8.8072891197970016E-2</v>
+        <v>-0.15942710880203048</v>
       </c>
       <c r="G261">
         <f t="shared" si="14"/>
-        <v>7.7568341639694645E-3</v>
+        <v>2.5417003020974466E-2</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -18193,16 +18442,16 @@
         <v>4.7255228466214598</v>
       </c>
       <c r="E262">
-        <f>+alfa+beta+phi*D261+epsilon</f>
-        <v>4.5096178760849961</v>
+        <f>+alfa+beta*A261+phi*D261</f>
+        <v>4.7583178760849956</v>
       </c>
       <c r="F262">
         <f t="shared" si="13"/>
-        <v>0.21590497053646374</v>
+        <v>-3.2795029463535741E-2</v>
       </c>
       <c r="G262">
         <f t="shared" si="14"/>
-        <v>4.6614956302351275E-2</v>
+        <v>1.0755139575141773E-3</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -18220,16 +18469,16 @@
         <v>4.7038375606789211</v>
       </c>
       <c r="E263">
-        <f>+alfa+beta+phi*D262+epsilon</f>
-        <v>4.6430289007473666</v>
+        <f>+alfa+beta*A262+phi*D262</f>
+        <v>4.892928900747366</v>
       </c>
       <c r="F263">
         <f t="shared" si="13"/>
-        <v>6.0808659931554487E-2</v>
+        <v>-0.18909134006844486</v>
       </c>
       <c r="G263">
         <f t="shared" si="14"/>
-        <v>3.69769312267144E-3</v>
+        <v>3.575553488888026E-2</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -18247,16 +18496,16 @@
         <v>4.6774181176502259</v>
       </c>
       <c r="E264">
-        <f>+alfa+beta+phi*D263+epsilon</f>
-        <v>4.6251363713161773</v>
+        <f>+alfa+beta*A263+phi*D263</f>
+        <v>4.8762363713161774</v>
       </c>
       <c r="F264">
         <f t="shared" si="13"/>
-        <v>5.2281746334048584E-2</v>
+        <v>-0.19881825366595152</v>
       </c>
       <c r="G264">
         <f t="shared" si="14"/>
-        <v>2.7333809997378026E-3</v>
+        <v>3.9528697990778641E-2</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -18274,16 +18523,16 @@
         <v>5.8469828441358009</v>
       </c>
       <c r="E265">
-        <f>+alfa+beta+phi*D264+epsilon</f>
-        <v>4.6033376888732009</v>
+        <f>+alfa+beta*A264+phi*D264</f>
+        <v>4.8556376888732009</v>
       </c>
       <c r="F265">
         <f t="shared" si="13"/>
-        <v>1.2436451552626</v>
+        <v>0.99134515526260003</v>
       </c>
       <c r="G265">
         <f t="shared" si="14"/>
-        <v>1.5466532722081365</v>
+        <v>0.98276521686262852</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -18301,16 +18550,16 @@
         <v>5.7042362328849334</v>
       </c>
       <c r="E266">
-        <f>+alfa+beta+phi*D265+epsilon</f>
-        <v>5.5683455446964487</v>
+        <f>+alfa+beta*A265+phi*D265</f>
+        <v>5.8218455446964485</v>
       </c>
       <c r="F266">
         <f t="shared" si="13"/>
-        <v>0.13589068818848471</v>
+        <v>-0.11760931181151513</v>
       </c>
       <c r="G266">
         <f t="shared" si="14"/>
-        <v>1.8466279136339976E-2</v>
+        <v>1.3831950224778192E-2</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -18328,16 +18577,16 @@
         <v>6.032882519842091</v>
       </c>
       <c r="E267">
-        <f>+alfa+beta+phi*D266+epsilon</f>
-        <v>5.4505653157533578</v>
+        <f>+alfa+beta*A266+phi*D266</f>
+        <v>5.7052653157533584</v>
       </c>
       <c r="F267">
         <f t="shared" si="13"/>
-        <v>0.58231720408873322</v>
+        <v>0.32761720408873263</v>
       </c>
       <c r="G267">
         <f t="shared" si="14"/>
-        <v>0.33909332617771937</v>
+        <v>0.10733303241491829</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -18355,16 +18604,16 @@
         <v>5.4649733570939159</v>
       </c>
       <c r="E268">
-        <f>+alfa+beta+phi*D267+epsilon</f>
-        <v>5.7217313671217092</v>
+        <f>+alfa+beta*A267+phi*D267</f>
+        <v>5.9776313671217096</v>
       </c>
       <c r="F268">
         <f t="shared" si="13"/>
-        <v>-0.2567580100277933</v>
+        <v>-0.51265801002779376</v>
       </c>
       <c r="G268">
         <f t="shared" si="14"/>
-        <v>6.5924675713432412E-2</v>
+        <v>0.26281823524565751</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -18382,16 +18631,16 @@
         <v>5.0419718620422351</v>
       </c>
       <c r="E269">
-        <f>+alfa+beta+phi*D268+epsilon</f>
-        <v>5.2531495169381897</v>
+        <f>+alfa+beta*A268+phi*D268</f>
+        <v>5.51024951693819</v>
       </c>
       <c r="F269">
         <f t="shared" si="13"/>
-        <v>-0.21117765489595453</v>
+        <v>-0.46827765489595485</v>
       </c>
       <c r="G269">
         <f t="shared" si="14"/>
-        <v>4.459600192735487E-2</v>
+        <v>0.21928396207485498</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -18409,16 +18658,16 @@
         <v>4.6869177333026144</v>
       </c>
       <c r="E270">
-        <f>+alfa+beta+phi*D269+epsilon</f>
-        <v>4.904130983371048</v>
+        <f>+alfa+beta*A269+phi*D269</f>
+        <v>5.1624309833710482</v>
       </c>
       <c r="F270">
         <f t="shared" si="13"/>
-        <v>-0.21721325006843362</v>
+        <v>-0.47551325006843381</v>
       </c>
       <c r="G270">
         <f t="shared" si="14"/>
-        <v>4.7181596005291877E-2</v>
+        <v>0.22611285099064488</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -18436,16 +18685,16 @@
         <v>4.6684823873209833</v>
       </c>
       <c r="E271">
-        <f>+alfa+beta+phi*D270+epsilon</f>
-        <v>4.6111758217479872</v>
+        <f>+alfa+beta*A270+phi*D270</f>
+        <v>4.8706758217479873</v>
       </c>
       <c r="F271">
         <f t="shared" si="13"/>
-        <v>5.7306565572996071E-2</v>
+        <v>-0.20219343442700399</v>
       </c>
       <c r="G271">
         <f t="shared" si="14"/>
-        <v>3.2840424577720985E-3</v>
+        <v>4.0882184925387165E-2</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -18463,16 +18712,16 @@
         <v>4.7002609335610979</v>
       </c>
       <c r="E272">
-        <f>+alfa+beta+phi*D271+epsilon</f>
-        <v>4.595964817778543</v>
+        <f>+alfa+beta*A271+phi*D271</f>
+        <v>4.856664817778543</v>
       </c>
       <c r="F272">
         <f t="shared" si="13"/>
-        <v>0.10429611578255482</v>
+        <v>-0.15640388421744511</v>
       </c>
       <c r="G272">
         <f t="shared" si="14"/>
-        <v>1.0877679767328081E-2</v>
+        <v>2.4462174998303977E-2</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -18490,16 +18739,16 @@
         <v>5.0425053865574183</v>
       </c>
       <c r="E273">
-        <f>+alfa+beta+phi*D272+epsilon</f>
-        <v>4.6221852962812617</v>
+        <f>+alfa+beta*A272+phi*D272</f>
+        <v>4.8840852962812615</v>
       </c>
       <c r="F273">
         <f t="shared" si="13"/>
-        <v>0.42032009027615658</v>
+        <v>0.15842009027615678</v>
       </c>
       <c r="G273">
         <f t="shared" si="14"/>
-        <v>0.17666897828975642</v>
+        <v>2.5096925003105664E-2</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -18517,16 +18766,16 @@
         <v>5.6096947695473247</v>
       </c>
       <c r="E274">
-        <f>+alfa+beta+phi*D273+epsilon</f>
-        <v>4.9045711944485255</v>
+        <f>+alfa+beta*A273+phi*D273</f>
+        <v>5.1676711944485252</v>
       </c>
       <c r="F274">
         <f t="shared" si="13"/>
-        <v>0.70512357509879919</v>
+        <v>0.44202357509879953</v>
       </c>
       <c r="G274">
         <f t="shared" si="14"/>
-        <v>0.4971992561601119</v>
+        <v>0.19538484094312406</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -18544,16 +18793,16 @@
         <v>5.7734697416842291</v>
       </c>
       <c r="E275">
-        <f>+alfa+beta+phi*D274+epsilon</f>
-        <v>5.372559154353497</v>
+        <f>+alfa+beta*A274+phi*D274</f>
+        <v>5.6368591543534974</v>
       </c>
       <c r="F275">
         <f t="shared" si="13"/>
-        <v>0.40091058733073215</v>
+        <v>0.13661058733073173</v>
       </c>
       <c r="G275">
         <f t="shared" si="14"/>
-        <v>0.16072929903387262</v>
+        <v>1.866245257084748E-2</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -18571,16 +18820,16 @@
         <v>5.3139325399317245</v>
       </c>
       <c r="E276">
-        <f>+alfa+beta+phi*D275+epsilon</f>
-        <v>5.507689883863657</v>
+        <f>+alfa+beta*A275+phi*D275</f>
+        <v>5.7731898838636573</v>
       </c>
       <c r="F276">
         <f t="shared" si="13"/>
-        <v>-0.19375734393193245</v>
+        <v>-0.45925734393193274</v>
       </c>
       <c r="G276">
         <f t="shared" si="14"/>
-        <v>3.7541908327557161E-2</v>
+        <v>0.21091730795541355</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -18598,16 +18847,16 @@
         <v>5.8578010971677097</v>
       </c>
       <c r="E277">
-        <f>+alfa+beta+phi*D276+epsilon</f>
-        <v>5.1285257386976655</v>
+        <f>+alfa+beta*A276+phi*D276</f>
+        <v>5.3952257386976656</v>
       </c>
       <c r="F277">
         <f t="shared" si="13"/>
-        <v>0.72927535847004421</v>
+        <v>0.46257535847004405</v>
       </c>
       <c r="G277">
         <f t="shared" si="14"/>
-        <v>0.5318425484716115</v>
+        <v>0.21397596226368976</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -18625,16 +18874,16 @@
         <v>5.9637677931691746</v>
       </c>
       <c r="E278">
-        <f>+alfa+beta+phi*D277+epsilon</f>
-        <v>5.577271685273077</v>
+        <f>+alfa+beta*A277+phi*D277</f>
+        <v>5.8451716852730771</v>
       </c>
       <c r="F278">
         <f t="shared" si="13"/>
-        <v>0.38649610789609756</v>
+        <v>0.11859610789609754</v>
       </c>
       <c r="G278">
         <f t="shared" si="14"/>
-        <v>0.14937924141883188</v>
+        <v>1.4065036808102808E-2</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -18652,16 +18901,16 @@
         <v>6.3178108982742698</v>
       </c>
       <c r="E279">
-        <f>+alfa+beta+phi*D278+epsilon</f>
-        <v>5.6647048061438854</v>
+        <f>+alfa+beta*A278+phi*D278</f>
+        <v>5.9338048061438853</v>
       </c>
       <c r="F279">
         <f t="shared" si="13"/>
-        <v>0.6531060921303844</v>
+        <v>0.3840060921303845</v>
       </c>
       <c r="G279">
         <f t="shared" si="14"/>
-        <v>0.42654756757782214</v>
+        <v>0.14746067879324934</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -18679,16 +18928,16 @@
         <v>5.7461205510149309</v>
       </c>
       <c r="E280">
-        <f>+alfa+beta+phi*D279+epsilon</f>
-        <v>5.9568257721660993</v>
+        <f>+alfa+beta*A279+phi*D279</f>
+        <v>6.2271257721660991</v>
       </c>
       <c r="F280">
         <f t="shared" si="13"/>
-        <v>-0.21070522115116841</v>
+        <v>-0.48100522115116817</v>
       </c>
       <c r="G280">
         <f t="shared" si="14"/>
-        <v>4.4396690220362786E-2</v>
+        <v>0.23136602277468421</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -18706,16 +18955,16 @@
         <v>5.4797468589041278</v>
       </c>
       <c r="E281">
-        <f>+alfa+beta+phi*D280+epsilon</f>
-        <v>5.4851240666424186</v>
+        <f>+alfa+beta*A280+phi*D280</f>
+        <v>5.7566240666424182</v>
       </c>
       <c r="F281">
         <f t="shared" si="13"/>
-        <v>-5.3772077382907568E-3</v>
+        <v>-0.27687720773829039</v>
       </c>
       <c r="G281">
         <f t="shared" si="14"/>
-        <v>2.8914363060733995E-5</v>
+        <v>7.6660988164952412E-2</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -18733,16 +18982,16 @@
         <v>6.3971789887438391</v>
       </c>
       <c r="E282">
-        <f>+alfa+beta+phi*D281+epsilon</f>
-        <v>5.2653391332817954</v>
+        <f>+alfa+beta*A281+phi*D281</f>
+        <v>5.5380391332817958</v>
       </c>
       <c r="F282">
         <f t="shared" si="13"/>
-        <v>1.1318398554620437</v>
+        <v>0.8591398554620433</v>
       </c>
       <c r="G282">
         <f t="shared" si="14"/>
-        <v>1.2810614584123399</v>
+        <v>0.73812129124334069</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -18760,16 +19009,16 @@
         <v>6.1922073680681997</v>
       </c>
       <c r="E283">
-        <f>+alfa+beta+phi*D282+epsilon</f>
-        <v>6.0223123836125412</v>
+        <f>+alfa+beta*A282+phi*D282</f>
+        <v>6.2962123836125414</v>
       </c>
       <c r="F283">
         <f t="shared" si="13"/>
-        <v>0.16989498445565854</v>
+        <v>-0.10400501554434172</v>
       </c>
       <c r="G283">
         <f t="shared" si="14"/>
-        <v>2.8864305743188455E-2</v>
+        <v>1.0817043258378763E-2</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -18787,16 +19036,16 @@
         <v>6.2973929756866172</v>
       </c>
       <c r="E284">
-        <f>+alfa+beta+phi*D283+epsilon</f>
-        <v>5.8531902993930709</v>
+        <f>+alfa+beta*A283+phi*D283</f>
+        <v>6.128290299393071</v>
       </c>
       <c r="F284">
         <f t="shared" si="13"/>
-        <v>0.44420267629354626</v>
+        <v>0.16910267629354614</v>
       </c>
       <c r="G284">
         <f t="shared" si="14"/>
-        <v>0.19731601762634904</v>
+        <v>2.8595715129639852E-2</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -18814,16 +19063,16 @@
         <v>6.3145595834616666</v>
       </c>
       <c r="E285">
-        <f>+alfa+beta+phi*D284+epsilon</f>
-        <v>5.9399789442390274</v>
+        <f>+alfa+beta*A284+phi*D284</f>
+        <v>6.2162789442390274</v>
       </c>
       <c r="F285">
         <f t="shared" si="13"/>
-        <v>0.37458063922263918</v>
+        <v>9.8280639222639188E-2</v>
       </c>
       <c r="G285">
         <f t="shared" si="14"/>
-        <v>0.14031065528044098</v>
+        <v>9.6590840460105635E-3</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -18841,16 +19090,16 @@
         <v>6.9313969034098815</v>
       </c>
       <c r="E286">
-        <f>+alfa+beta+phi*D285+epsilon</f>
-        <v>5.9541431123142203</v>
+        <f>+alfa+beta*A285+phi*D285</f>
+        <v>6.2316431123142202</v>
       </c>
       <c r="F286">
         <f t="shared" si="13"/>
-        <v>0.97725379109566113</v>
+        <v>0.69975379109566127</v>
       </c>
       <c r="G286">
         <f t="shared" si="14"/>
-        <v>0.95502497221084204</v>
+        <v>0.48965536815275035</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -18868,16 +19117,16 @@
         <v>6.9552914523740226</v>
       </c>
       <c r="E287">
-        <f>+alfa+beta+phi*D286+epsilon</f>
-        <v>6.4630955850034928</v>
+        <f>+alfa+beta*A286+phi*D286</f>
+        <v>6.7417955850034925</v>
       </c>
       <c r="F287">
         <f t="shared" si="13"/>
-        <v>0.49219586737052978</v>
+        <v>0.21349586737053006</v>
       </c>
       <c r="G287">
         <f t="shared" si="14"/>
-        <v>0.24225677185662814</v>
+        <v>4.5580485384294961E-2</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -18895,16 +19144,16 @@
         <v>6.3253178269507773</v>
       </c>
       <c r="E288">
-        <f>+alfa+beta+phi*D287+epsilon</f>
-        <v>6.4828109773538056</v>
+        <f>+alfa+beta*A287+phi*D287</f>
+        <v>6.7627109773538052</v>
       </c>
       <c r="F288">
         <f t="shared" si="13"/>
-        <v>-0.15749315040302836</v>
+        <v>-0.43739315040302795</v>
       </c>
       <c r="G288">
         <f t="shared" si="14"/>
-        <v>2.480409242387091E-2</v>
+        <v>0.19131276801948582</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -18922,16 +19171,16 @@
         <v>6.4998406630137078</v>
       </c>
       <c r="E289">
-        <f>+alfa+beta+phi*D288+epsilon</f>
-        <v>5.9630197390170858</v>
+        <f>+alfa+beta*A288+phi*D288</f>
+        <v>6.2441197390170862</v>
       </c>
       <c r="F289">
         <f t="shared" si="13"/>
-        <v>0.53682092399662196</v>
+        <v>0.25572092399662161</v>
       </c>
       <c r="G289">
         <f t="shared" si="14"/>
-        <v>0.28817670444058696</v>
+        <v>6.5393190969685919E-2</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -18949,16 +19198,16 @@
         <v>6.3256678731970872</v>
       </c>
       <c r="E290">
-        <f>+alfa+beta+phi*D289+epsilon</f>
-        <v>6.1070185310526099</v>
+        <f>+alfa+beta*A289+phi*D289</f>
+        <v>6.3893185310526102</v>
       </c>
       <c r="F290">
         <f t="shared" si="13"/>
-        <v>0.21864934214447729</v>
+        <v>-6.365065785552293E-2</v>
       </c>
       <c r="G290">
         <f t="shared" si="14"/>
-        <v>4.7807534820212695E-2</v>
+        <v>4.0514062454408426E-3</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -18976,16 +19225,16 @@
         <v>6.3650465493793753</v>
       </c>
       <c r="E291">
-        <f>+alfa+beta+phi*D290+epsilon</f>
-        <v>5.963308562174916</v>
+        <f>+alfa+beta*A290+phi*D290</f>
+        <v>6.2468085621749161</v>
       </c>
       <c r="F291">
         <f t="shared" si="13"/>
-        <v>0.4017379872044593</v>
+        <v>0.11823798720445922</v>
       </c>
       <c r="G291">
         <f t="shared" si="14"/>
-        <v>0.16139341036309029</v>
+        <v>1.3980221618161861E-2</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -19003,19 +19252,236 @@
         <v>6.4275096310678856</v>
       </c>
       <c r="E292">
-        <f>+alfa+beta+phi*D291+epsilon</f>
-        <v>5.9957999078929216</v>
+        <f>+alfa+beta*A291+phi*D291</f>
+        <v>6.2804999078929216</v>
       </c>
       <c r="F292">
         <f t="shared" si="13"/>
-        <v>0.43170972317496403</v>
+        <v>0.14700972317496408</v>
       </c>
       <c r="G292">
         <f t="shared" si="14"/>
-        <v>0.18637328508380407</v>
+        <v>2.1611858707979572E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D293">
+        <v>234</v>
+      </c>
+      <c r="E293">
+        <f>+alfa+beta*D293+phi*D292</f>
+        <v>6.2648381965941118</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D294">
+        <v>235</v>
+      </c>
+      <c r="E294">
+        <f>+alfa+beta*D294+phi*E293</f>
+        <v>6.1318179960098016</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D295">
+        <v>236</v>
+      </c>
+      <c r="E295">
+        <f>+alfa+beta*D295+phi*E294</f>
+        <v>6.0232630285076869</v>
+      </c>
+      <c r="F295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D296">
+        <v>237</v>
+      </c>
+      <c r="E296">
+        <f>+alfa+beta*D296+phi*E295</f>
+        <v>5.9348943248216921</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D297">
+        <v>238</v>
+      </c>
+      <c r="E297">
+        <f>+alfa+beta*D297+phi*E296</f>
+        <v>5.8631813074103771</v>
+      </c>
+      <c r="F297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D298">
+        <v>239</v>
+      </c>
+      <c r="E298">
+        <f>+alfa+beta*D298+phi*E297</f>
+        <v>5.8052108967443017</v>
+      </c>
+      <c r="F298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D299">
+        <v>240</v>
+      </c>
+      <c r="E299">
+        <f>+alfa+beta*D299+phi*E298</f>
+        <v>5.758579510903723</v>
+      </c>
+      <c r="F299">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D300">
+        <v>241</v>
+      </c>
+      <c r="E300">
+        <f>+alfa+beta*D300+phi*E299</f>
+        <v>5.721303954446662</v>
+      </c>
+      <c r="F300">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D301">
+        <v>242</v>
+      </c>
+      <c r="E301">
+        <f>+alfa+beta*D301+phi*E300</f>
+        <v>5.6917478928139404</v>
+      </c>
+      <c r="F301">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D302">
+        <v>243</v>
+      </c>
+      <c r="E302">
+        <f>+alfa+beta*D302+phi*E301</f>
+        <v>5.6685611863607814</v>
+      </c>
+      <c r="F302">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D303">
+        <v>244</v>
+      </c>
+      <c r="E303">
+        <f>+alfa+beta*D303+phi*E302</f>
+        <v>5.6506298348662805</v>
+      </c>
+      <c r="F303">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D304">
+        <v>245</v>
+      </c>
+      <c r="E304">
+        <f>+alfa+beta*D304+phi*E303</f>
+        <v>5.6370346767481667</v>
+      </c>
+      <c r="F304">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
